--- a/GTAPmap.xlsx
+++ b/GTAPmap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Tools\Forecasts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Projects\MyGTAP Tools\MyGTAP-ExtraDat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4372BD8A-0F59-4820-9CE1-C10EE3534BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390CC435-021A-4C60-B6D0-79A4BEDF3198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="19668" windowHeight="11796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1614,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="B247" sqref="B247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3643,7 +3643,7 @@
   <dimension ref="A1:A161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/GTAPmap.xlsx
+++ b/GTAPmap.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Projects\MyGTAP Tools\MyGTAP-ExtraDat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390CC435-021A-4C60-B6D0-79A4BEDF3198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CEF205B-4A52-4F7E-A7F2-F992D3865A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="v9a_map" sheetId="1" r:id="rId1"/>
+    <sheet name="v9a_set" sheetId="2" r:id="rId2"/>
+    <sheet name="v10a_map" sheetId="5" r:id="rId3"/>
+    <sheet name="v10a_set" sheetId="6" r:id="rId4"/>
+    <sheet name="v11c_map" sheetId="3" r:id="rId5"/>
+    <sheet name="v11c_set" sheetId="4" r:id="rId6"/>
+    <sheet name="v12_map" sheetId="7" r:id="rId7"/>
+    <sheet name="v12_set" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="417">
   <si>
     <t>afg</t>
   </si>
@@ -1272,7 +1278,19 @@
     <t>SXM</t>
   </si>
   <si>
-    <t>car</t>
+    <t>xcf</t>
+  </si>
+  <si>
+    <t>mrt</t>
+  </si>
+  <si>
+    <t>ago</t>
+  </si>
+  <si>
+    <t>stp</t>
+  </si>
+  <si>
+    <t>bdi</t>
   </si>
 </sst>
 </file>
@@ -1615,7 +1633,2756 @@
   <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="B247" sqref="B247"/>
+      <selection activeCell="L237" sqref="L237"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>191</v>
+      </c>
+      <c r="B31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>192</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>195</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>197</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>198</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>199</v>
+      </c>
+      <c r="B39" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>201</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>203</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>204</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>205</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>206</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>208</v>
+      </c>
+      <c r="B48" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>209</v>
+      </c>
+      <c r="B49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>210</v>
+      </c>
+      <c r="B50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>211</v>
+      </c>
+      <c r="B51" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>212</v>
+      </c>
+      <c r="B52" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>213</v>
+      </c>
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>214</v>
+      </c>
+      <c r="B54" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>215</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>217</v>
+      </c>
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>218</v>
+      </c>
+      <c r="B58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>219</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>220</v>
+      </c>
+      <c r="B60" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>221</v>
+      </c>
+      <c r="B61" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>222</v>
+      </c>
+      <c r="B62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>223</v>
+      </c>
+      <c r="B63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>224</v>
+      </c>
+      <c r="B64" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>225</v>
+      </c>
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>226</v>
+      </c>
+      <c r="B66" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>227</v>
+      </c>
+      <c r="B67" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>228</v>
+      </c>
+      <c r="B68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>229</v>
+      </c>
+      <c r="B69" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>230</v>
+      </c>
+      <c r="B70" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>231</v>
+      </c>
+      <c r="B71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>232</v>
+      </c>
+      <c r="B72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>233</v>
+      </c>
+      <c r="B73" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>234</v>
+      </c>
+      <c r="B74" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>235</v>
+      </c>
+      <c r="B75" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>236</v>
+      </c>
+      <c r="B76" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>237</v>
+      </c>
+      <c r="B77" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>238</v>
+      </c>
+      <c r="B78" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>239</v>
+      </c>
+      <c r="B79" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>240</v>
+      </c>
+      <c r="B80" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>241</v>
+      </c>
+      <c r="B81" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>242</v>
+      </c>
+      <c r="B82" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>243</v>
+      </c>
+      <c r="B83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>244</v>
+      </c>
+      <c r="B84" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>245</v>
+      </c>
+      <c r="B85" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>246</v>
+      </c>
+      <c r="B86" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>247</v>
+      </c>
+      <c r="B87" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>248</v>
+      </c>
+      <c r="B88" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>249</v>
+      </c>
+      <c r="B89" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>250</v>
+      </c>
+      <c r="B90" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>251</v>
+      </c>
+      <c r="B91" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>252</v>
+      </c>
+      <c r="B92" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>253</v>
+      </c>
+      <c r="B93" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>254</v>
+      </c>
+      <c r="B94" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>255</v>
+      </c>
+      <c r="B95" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>256</v>
+      </c>
+      <c r="B96" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>257</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>258</v>
+      </c>
+      <c r="B98" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>259</v>
+      </c>
+      <c r="B99" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>260</v>
+      </c>
+      <c r="B100" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>261</v>
+      </c>
+      <c r="B101" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>262</v>
+      </c>
+      <c r="B102" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>263</v>
+      </c>
+      <c r="B103" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>264</v>
+      </c>
+      <c r="B104" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>265</v>
+      </c>
+      <c r="B105" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>266</v>
+      </c>
+      <c r="B106" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>267</v>
+      </c>
+      <c r="B107" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>268</v>
+      </c>
+      <c r="B108" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>269</v>
+      </c>
+      <c r="B109" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>270</v>
+      </c>
+      <c r="B110" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>271</v>
+      </c>
+      <c r="B111" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>272</v>
+      </c>
+      <c r="B112" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>273</v>
+      </c>
+      <c r="B113" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>274</v>
+      </c>
+      <c r="B114" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>275</v>
+      </c>
+      <c r="B115" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>276</v>
+      </c>
+      <c r="B116" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>277</v>
+      </c>
+      <c r="B117" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>278</v>
+      </c>
+      <c r="B118" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>279</v>
+      </c>
+      <c r="B119" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>280</v>
+      </c>
+      <c r="B120" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>281</v>
+      </c>
+      <c r="B121" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>282</v>
+      </c>
+      <c r="B122" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>283</v>
+      </c>
+      <c r="B123" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>284</v>
+      </c>
+      <c r="B124" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>285</v>
+      </c>
+      <c r="B125" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>286</v>
+      </c>
+      <c r="B126" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>287</v>
+      </c>
+      <c r="B127" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>288</v>
+      </c>
+      <c r="B128" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>289</v>
+      </c>
+      <c r="B129" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>290</v>
+      </c>
+      <c r="B130" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>291</v>
+      </c>
+      <c r="B131" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>292</v>
+      </c>
+      <c r="B132" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>293</v>
+      </c>
+      <c r="B133" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>294</v>
+      </c>
+      <c r="B134" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>295</v>
+      </c>
+      <c r="B135" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>296</v>
+      </c>
+      <c r="B136" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>297</v>
+      </c>
+      <c r="B137" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>298</v>
+      </c>
+      <c r="B138" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>299</v>
+      </c>
+      <c r="B139" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>300</v>
+      </c>
+      <c r="B140" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>301</v>
+      </c>
+      <c r="B141" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>302</v>
+      </c>
+      <c r="B142" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>303</v>
+      </c>
+      <c r="B143" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>304</v>
+      </c>
+      <c r="B144" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>305</v>
+      </c>
+      <c r="B145" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>306</v>
+      </c>
+      <c r="B146" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>307</v>
+      </c>
+      <c r="B147" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>308</v>
+      </c>
+      <c r="B148" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>309</v>
+      </c>
+      <c r="B149" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>310</v>
+      </c>
+      <c r="B150" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>311</v>
+      </c>
+      <c r="B151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>312</v>
+      </c>
+      <c r="B152" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>313</v>
+      </c>
+      <c r="B153" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>314</v>
+      </c>
+      <c r="B154" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>315</v>
+      </c>
+      <c r="B155" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>316</v>
+      </c>
+      <c r="B156" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>317</v>
+      </c>
+      <c r="B157" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>318</v>
+      </c>
+      <c r="B158" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>319</v>
+      </c>
+      <c r="B159" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>320</v>
+      </c>
+      <c r="B160" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>321</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>322</v>
+      </c>
+      <c r="B162" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>323</v>
+      </c>
+      <c r="B163" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>324</v>
+      </c>
+      <c r="B164" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>325</v>
+      </c>
+      <c r="B165" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>326</v>
+      </c>
+      <c r="B166" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>327</v>
+      </c>
+      <c r="B167" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>328</v>
+      </c>
+      <c r="B168" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>329</v>
+      </c>
+      <c r="B169" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>330</v>
+      </c>
+      <c r="B170" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>331</v>
+      </c>
+      <c r="B171" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>332</v>
+      </c>
+      <c r="B172" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>333</v>
+      </c>
+      <c r="B173" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>334</v>
+      </c>
+      <c r="B174" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>335</v>
+      </c>
+      <c r="B175" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>336</v>
+      </c>
+      <c r="B176" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>337</v>
+      </c>
+      <c r="B177" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>338</v>
+      </c>
+      <c r="B178" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>339</v>
+      </c>
+      <c r="B179" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>340</v>
+      </c>
+      <c r="B180" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>341</v>
+      </c>
+      <c r="B181" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>342</v>
+      </c>
+      <c r="B182" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>343</v>
+      </c>
+      <c r="B183" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>344</v>
+      </c>
+      <c r="B184" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>345</v>
+      </c>
+      <c r="B185" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>346</v>
+      </c>
+      <c r="B186" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>347</v>
+      </c>
+      <c r="B187" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>348</v>
+      </c>
+      <c r="B188" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>349</v>
+      </c>
+      <c r="B189" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>350</v>
+      </c>
+      <c r="B190" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>351</v>
+      </c>
+      <c r="B191" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>352</v>
+      </c>
+      <c r="B192" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>353</v>
+      </c>
+      <c r="B193" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>354</v>
+      </c>
+      <c r="B194" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>355</v>
+      </c>
+      <c r="B195" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>356</v>
+      </c>
+      <c r="B196" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>357</v>
+      </c>
+      <c r="B197" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>358</v>
+      </c>
+      <c r="B198" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>359</v>
+      </c>
+      <c r="B199" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>360</v>
+      </c>
+      <c r="B200" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>361</v>
+      </c>
+      <c r="B201" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>362</v>
+      </c>
+      <c r="B202" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>363</v>
+      </c>
+      <c r="B203" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>364</v>
+      </c>
+      <c r="B204" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>365</v>
+      </c>
+      <c r="B205" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>366</v>
+      </c>
+      <c r="B206" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>367</v>
+      </c>
+      <c r="B207" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>368</v>
+      </c>
+      <c r="B208" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>369</v>
+      </c>
+      <c r="B209" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>370</v>
+      </c>
+      <c r="B210" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>371</v>
+      </c>
+      <c r="B211" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>372</v>
+      </c>
+      <c r="B212" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>373</v>
+      </c>
+      <c r="B213" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>374</v>
+      </c>
+      <c r="B214" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>375</v>
+      </c>
+      <c r="B215" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>376</v>
+      </c>
+      <c r="B216" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>377</v>
+      </c>
+      <c r="B217" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>378</v>
+      </c>
+      <c r="B218" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>379</v>
+      </c>
+      <c r="B219" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>380</v>
+      </c>
+      <c r="B220" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>381</v>
+      </c>
+      <c r="B221" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>382</v>
+      </c>
+      <c r="B222" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>383</v>
+      </c>
+      <c r="B223" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>384</v>
+      </c>
+      <c r="B224" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>385</v>
+      </c>
+      <c r="B225" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>386</v>
+      </c>
+      <c r="B226" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>387</v>
+      </c>
+      <c r="B227" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>388</v>
+      </c>
+      <c r="B228" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>389</v>
+      </c>
+      <c r="B229" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>390</v>
+      </c>
+      <c r="B230" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>391</v>
+      </c>
+      <c r="B231" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>392</v>
+      </c>
+      <c r="B232" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>393</v>
+      </c>
+      <c r="B233" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>394</v>
+      </c>
+      <c r="B234" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>395</v>
+      </c>
+      <c r="B235" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>396</v>
+      </c>
+      <c r="B236" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>397</v>
+      </c>
+      <c r="B237" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>398</v>
+      </c>
+      <c r="B238" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>399</v>
+      </c>
+      <c r="B239" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>400</v>
+      </c>
+      <c r="B240" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>401</v>
+      </c>
+      <c r="B241" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>402</v>
+      </c>
+      <c r="B242" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>403</v>
+      </c>
+      <c r="B243" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>404</v>
+      </c>
+      <c r="B244" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>405</v>
+      </c>
+      <c r="B245" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>406</v>
+      </c>
+      <c r="B246" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>407</v>
+      </c>
+      <c r="B247" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>408</v>
+      </c>
+      <c r="B248" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>411</v>
+      </c>
+      <c r="B249" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>410</v>
+      </c>
+      <c r="B250" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>409</v>
+      </c>
+      <c r="B251" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88E00FF-2884-4960-9C37-EC22FE40D130}">
+  <dimension ref="A1:A141"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B141"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02ADF971-CAF0-41FB-97EA-B62FD8513AE1}">
+  <dimension ref="A1:B251"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1645,7 +4412,7 @@
         <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1781,7 +4548,7 @@
         <v>180</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1933,7 +4700,7 @@
         <v>199</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>412</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1997,7 +4764,7 @@
         <v>207</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>412</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -2005,7 +4772,7 @@
         <v>208</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>412</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -2029,7 +4796,7 @@
         <v>211</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2133,7 +4900,7 @@
         <v>224</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -2245,7 +5012,7 @@
         <v>238</v>
       </c>
       <c r="B78" t="s">
-        <v>44</v>
+        <v>412</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -2325,7 +5092,7 @@
         <v>248</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>412</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -2421,7 +5188,7 @@
         <v>260</v>
       </c>
       <c r="B100" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -2485,7 +5252,7 @@
         <v>268</v>
       </c>
       <c r="B108" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -2621,7 +5388,7 @@
         <v>285</v>
       </c>
       <c r="B125" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -2773,7 +5540,7 @@
         <v>304</v>
       </c>
       <c r="B144" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -2901,7 +5668,7 @@
         <v>320</v>
       </c>
       <c r="B160" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -3085,7 +5852,7 @@
         <v>343</v>
       </c>
       <c r="B183" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -3149,7 +5916,7 @@
         <v>351</v>
       </c>
       <c r="B191" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -3245,7 +6012,7 @@
         <v>363</v>
       </c>
       <c r="B203" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -3293,7 +6060,7 @@
         <v>369</v>
       </c>
       <c r="B209" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -3309,7 +6076,7 @@
         <v>371</v>
       </c>
       <c r="B211" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -3325,7 +6092,7 @@
         <v>373</v>
       </c>
       <c r="B213" t="s">
-        <v>122</v>
+        <v>412</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -3477,7 +6244,7 @@
         <v>392</v>
       </c>
       <c r="B232" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -3613,7 +6380,7 @@
         <v>411</v>
       </c>
       <c r="B249" t="s">
-        <v>412</v>
+        <v>141</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
@@ -3621,7 +6388,7 @@
         <v>410</v>
       </c>
       <c r="B250" t="s">
-        <v>412</v>
+        <v>141</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
@@ -3629,7 +6396,7 @@
         <v>409</v>
       </c>
       <c r="B251" t="s">
-        <v>412</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3638,12 +6405,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88E00FF-2884-4960-9C37-EC22FE40D130}">
-  <dimension ref="A1:A161"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C499324-2820-482F-8247-3C491B573A50}">
+  <dimension ref="A1:A142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3755,6 +6522,2757 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B5AD30-7F1F-4EE0-9927-E5D6D594EF64}">
+  <dimension ref="A1:B251"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="28.5546875" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>191</v>
+      </c>
+      <c r="B31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>192</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>195</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>197</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>198</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>199</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>201</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>203</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>204</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>205</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>206</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>208</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>209</v>
+      </c>
+      <c r="B49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>210</v>
+      </c>
+      <c r="B50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>211</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>212</v>
+      </c>
+      <c r="B52" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>213</v>
+      </c>
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>214</v>
+      </c>
+      <c r="B54" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>215</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>217</v>
+      </c>
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>218</v>
+      </c>
+      <c r="B58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>219</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>220</v>
+      </c>
+      <c r="B60" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>221</v>
+      </c>
+      <c r="B61" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>222</v>
+      </c>
+      <c r="B62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>223</v>
+      </c>
+      <c r="B63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>224</v>
+      </c>
+      <c r="B64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>225</v>
+      </c>
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>226</v>
+      </c>
+      <c r="B66" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>227</v>
+      </c>
+      <c r="B67" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>228</v>
+      </c>
+      <c r="B68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>229</v>
+      </c>
+      <c r="B69" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>230</v>
+      </c>
+      <c r="B70" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>231</v>
+      </c>
+      <c r="B71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>232</v>
+      </c>
+      <c r="B72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>233</v>
+      </c>
+      <c r="B73" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>234</v>
+      </c>
+      <c r="B74" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>235</v>
+      </c>
+      <c r="B75" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>236</v>
+      </c>
+      <c r="B76" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>237</v>
+      </c>
+      <c r="B77" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>238</v>
+      </c>
+      <c r="B78" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>239</v>
+      </c>
+      <c r="B79" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>240</v>
+      </c>
+      <c r="B80" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>241</v>
+      </c>
+      <c r="B81" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>242</v>
+      </c>
+      <c r="B82" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>243</v>
+      </c>
+      <c r="B83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>244</v>
+      </c>
+      <c r="B84" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>245</v>
+      </c>
+      <c r="B85" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>246</v>
+      </c>
+      <c r="B86" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>247</v>
+      </c>
+      <c r="B87" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>248</v>
+      </c>
+      <c r="B88" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>249</v>
+      </c>
+      <c r="B89" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>250</v>
+      </c>
+      <c r="B90" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>251</v>
+      </c>
+      <c r="B91" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>252</v>
+      </c>
+      <c r="B92" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>253</v>
+      </c>
+      <c r="B93" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>254</v>
+      </c>
+      <c r="B94" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>255</v>
+      </c>
+      <c r="B95" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>256</v>
+      </c>
+      <c r="B96" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>257</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>258</v>
+      </c>
+      <c r="B98" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>259</v>
+      </c>
+      <c r="B99" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>260</v>
+      </c>
+      <c r="B100" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>261</v>
+      </c>
+      <c r="B101" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>262</v>
+      </c>
+      <c r="B102" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>263</v>
+      </c>
+      <c r="B103" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>264</v>
+      </c>
+      <c r="B104" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>265</v>
+      </c>
+      <c r="B105" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>266</v>
+      </c>
+      <c r="B106" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>267</v>
+      </c>
+      <c r="B107" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>268</v>
+      </c>
+      <c r="B108" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>269</v>
+      </c>
+      <c r="B109" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>270</v>
+      </c>
+      <c r="B110" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>271</v>
+      </c>
+      <c r="B111" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>272</v>
+      </c>
+      <c r="B112" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>273</v>
+      </c>
+      <c r="B113" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>274</v>
+      </c>
+      <c r="B114" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>275</v>
+      </c>
+      <c r="B115" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>276</v>
+      </c>
+      <c r="B116" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>277</v>
+      </c>
+      <c r="B117" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>278</v>
+      </c>
+      <c r="B118" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>279</v>
+      </c>
+      <c r="B119" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>280</v>
+      </c>
+      <c r="B120" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>281</v>
+      </c>
+      <c r="B121" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>282</v>
+      </c>
+      <c r="B122" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>283</v>
+      </c>
+      <c r="B123" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>284</v>
+      </c>
+      <c r="B124" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>285</v>
+      </c>
+      <c r="B125" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>286</v>
+      </c>
+      <c r="B126" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>287</v>
+      </c>
+      <c r="B127" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>288</v>
+      </c>
+      <c r="B128" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>289</v>
+      </c>
+      <c r="B129" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>290</v>
+      </c>
+      <c r="B130" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>291</v>
+      </c>
+      <c r="B131" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>292</v>
+      </c>
+      <c r="B132" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>293</v>
+      </c>
+      <c r="B133" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>294</v>
+      </c>
+      <c r="B134" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>295</v>
+      </c>
+      <c r="B135" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>296</v>
+      </c>
+      <c r="B136" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>297</v>
+      </c>
+      <c r="B137" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>298</v>
+      </c>
+      <c r="B138" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>299</v>
+      </c>
+      <c r="B139" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>300</v>
+      </c>
+      <c r="B140" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>301</v>
+      </c>
+      <c r="B141" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>302</v>
+      </c>
+      <c r="B142" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>303</v>
+      </c>
+      <c r="B143" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>304</v>
+      </c>
+      <c r="B144" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>305</v>
+      </c>
+      <c r="B145" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>306</v>
+      </c>
+      <c r="B146" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>307</v>
+      </c>
+      <c r="B147" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>308</v>
+      </c>
+      <c r="B148" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>309</v>
+      </c>
+      <c r="B149" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>310</v>
+      </c>
+      <c r="B150" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>311</v>
+      </c>
+      <c r="B151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>312</v>
+      </c>
+      <c r="B152" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>313</v>
+      </c>
+      <c r="B153" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>314</v>
+      </c>
+      <c r="B154" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>315</v>
+      </c>
+      <c r="B155" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>316</v>
+      </c>
+      <c r="B156" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>317</v>
+      </c>
+      <c r="B157" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>318</v>
+      </c>
+      <c r="B158" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>319</v>
+      </c>
+      <c r="B159" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>320</v>
+      </c>
+      <c r="B160" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>321</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>322</v>
+      </c>
+      <c r="B162" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>323</v>
+      </c>
+      <c r="B163" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>324</v>
+      </c>
+      <c r="B164" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>325</v>
+      </c>
+      <c r="B165" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>326</v>
+      </c>
+      <c r="B166" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>327</v>
+      </c>
+      <c r="B167" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>328</v>
+      </c>
+      <c r="B168" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>329</v>
+      </c>
+      <c r="B169" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>330</v>
+      </c>
+      <c r="B170" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>331</v>
+      </c>
+      <c r="B171" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>332</v>
+      </c>
+      <c r="B172" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>333</v>
+      </c>
+      <c r="B173" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>334</v>
+      </c>
+      <c r="B174" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>335</v>
+      </c>
+      <c r="B175" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>336</v>
+      </c>
+      <c r="B176" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>337</v>
+      </c>
+      <c r="B177" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>338</v>
+      </c>
+      <c r="B178" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>339</v>
+      </c>
+      <c r="B179" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>340</v>
+      </c>
+      <c r="B180" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>341</v>
+      </c>
+      <c r="B181" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>342</v>
+      </c>
+      <c r="B182" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>343</v>
+      </c>
+      <c r="B183" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>344</v>
+      </c>
+      <c r="B184" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>345</v>
+      </c>
+      <c r="B185" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>346</v>
+      </c>
+      <c r="B186" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>347</v>
+      </c>
+      <c r="B187" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>348</v>
+      </c>
+      <c r="B188" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>349</v>
+      </c>
+      <c r="B189" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>350</v>
+      </c>
+      <c r="B190" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>351</v>
+      </c>
+      <c r="B191" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>352</v>
+      </c>
+      <c r="B192" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>353</v>
+      </c>
+      <c r="B193" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>354</v>
+      </c>
+      <c r="B194" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>355</v>
+      </c>
+      <c r="B195" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>356</v>
+      </c>
+      <c r="B196" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>357</v>
+      </c>
+      <c r="B197" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>358</v>
+      </c>
+      <c r="B198" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>359</v>
+      </c>
+      <c r="B199" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>360</v>
+      </c>
+      <c r="B200" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>361</v>
+      </c>
+      <c r="B201" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>362</v>
+      </c>
+      <c r="B202" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>363</v>
+      </c>
+      <c r="B203" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>364</v>
+      </c>
+      <c r="B204" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>365</v>
+      </c>
+      <c r="B205" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>366</v>
+      </c>
+      <c r="B206" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>367</v>
+      </c>
+      <c r="B207" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>368</v>
+      </c>
+      <c r="B208" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>369</v>
+      </c>
+      <c r="B209" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>370</v>
+      </c>
+      <c r="B210" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>371</v>
+      </c>
+      <c r="B211" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>372</v>
+      </c>
+      <c r="B212" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>373</v>
+      </c>
+      <c r="B213" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>374</v>
+      </c>
+      <c r="B214" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>375</v>
+      </c>
+      <c r="B215" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>376</v>
+      </c>
+      <c r="B216" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>377</v>
+      </c>
+      <c r="B217" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>378</v>
+      </c>
+      <c r="B218" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>379</v>
+      </c>
+      <c r="B219" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>380</v>
+      </c>
+      <c r="B220" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>381</v>
+      </c>
+      <c r="B221" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>382</v>
+      </c>
+      <c r="B222" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>383</v>
+      </c>
+      <c r="B223" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>384</v>
+      </c>
+      <c r="B224" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>385</v>
+      </c>
+      <c r="B225" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>386</v>
+      </c>
+      <c r="B226" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>387</v>
+      </c>
+      <c r="B227" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>388</v>
+      </c>
+      <c r="B228" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>389</v>
+      </c>
+      <c r="B229" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>390</v>
+      </c>
+      <c r="B230" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>391</v>
+      </c>
+      <c r="B231" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>392</v>
+      </c>
+      <c r="B232" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>393</v>
+      </c>
+      <c r="B233" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>394</v>
+      </c>
+      <c r="B234" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>395</v>
+      </c>
+      <c r="B235" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>396</v>
+      </c>
+      <c r="B236" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>397</v>
+      </c>
+      <c r="B237" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>398</v>
+      </c>
+      <c r="B238" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>399</v>
+      </c>
+      <c r="B239" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>400</v>
+      </c>
+      <c r="B240" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>401</v>
+      </c>
+      <c r="B241" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>402</v>
+      </c>
+      <c r="B242" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>403</v>
+      </c>
+      <c r="B243" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>404</v>
+      </c>
+      <c r="B244" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>405</v>
+      </c>
+      <c r="B245" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>406</v>
+      </c>
+      <c r="B246" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>407</v>
+      </c>
+      <c r="B247" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>408</v>
+      </c>
+      <c r="B248" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>411</v>
+      </c>
+      <c r="B249" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>410</v>
+      </c>
+      <c r="B250" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>409</v>
+      </c>
+      <c r="B251" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AAB97C-9C6A-4089-907F-A92DC0C4660B}">
+  <dimension ref="A1:A161"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4450,6 +9968,2869 @@
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635AECAF-22BD-4B7E-AFA1-ADF7370CA655}">
+  <dimension ref="A1:B251"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C251"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="28.5546875" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>191</v>
+      </c>
+      <c r="B31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>192</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>195</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>197</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>198</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>199</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>201</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>203</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>204</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>205</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>206</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>208</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>209</v>
+      </c>
+      <c r="B49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>210</v>
+      </c>
+      <c r="B50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>211</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>212</v>
+      </c>
+      <c r="B52" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>213</v>
+      </c>
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>214</v>
+      </c>
+      <c r="B54" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>215</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>217</v>
+      </c>
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>218</v>
+      </c>
+      <c r="B58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>219</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>220</v>
+      </c>
+      <c r="B60" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>221</v>
+      </c>
+      <c r="B61" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>222</v>
+      </c>
+      <c r="B62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>223</v>
+      </c>
+      <c r="B63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>224</v>
+      </c>
+      <c r="B64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>225</v>
+      </c>
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>226</v>
+      </c>
+      <c r="B66" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>227</v>
+      </c>
+      <c r="B67" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>228</v>
+      </c>
+      <c r="B68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>229</v>
+      </c>
+      <c r="B69" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>230</v>
+      </c>
+      <c r="B70" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>231</v>
+      </c>
+      <c r="B71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>232</v>
+      </c>
+      <c r="B72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>233</v>
+      </c>
+      <c r="B73" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>234</v>
+      </c>
+      <c r="B74" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>235</v>
+      </c>
+      <c r="B75" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>236</v>
+      </c>
+      <c r="B76" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>237</v>
+      </c>
+      <c r="B77" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>238</v>
+      </c>
+      <c r="B78" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>239</v>
+      </c>
+      <c r="B79" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>240</v>
+      </c>
+      <c r="B80" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>241</v>
+      </c>
+      <c r="B81" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>242</v>
+      </c>
+      <c r="B82" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>243</v>
+      </c>
+      <c r="B83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>244</v>
+      </c>
+      <c r="B84" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>245</v>
+      </c>
+      <c r="B85" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>246</v>
+      </c>
+      <c r="B86" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>247</v>
+      </c>
+      <c r="B87" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>248</v>
+      </c>
+      <c r="B88" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>249</v>
+      </c>
+      <c r="B89" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>250</v>
+      </c>
+      <c r="B90" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>251</v>
+      </c>
+      <c r="B91" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>252</v>
+      </c>
+      <c r="B92" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>253</v>
+      </c>
+      <c r="B93" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>254</v>
+      </c>
+      <c r="B94" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>255</v>
+      </c>
+      <c r="B95" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>256</v>
+      </c>
+      <c r="B96" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>257</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>258</v>
+      </c>
+      <c r="B98" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>259</v>
+      </c>
+      <c r="B99" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>260</v>
+      </c>
+      <c r="B100" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>261</v>
+      </c>
+      <c r="B101" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>262</v>
+      </c>
+      <c r="B102" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>263</v>
+      </c>
+      <c r="B103" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>264</v>
+      </c>
+      <c r="B104" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>265</v>
+      </c>
+      <c r="B105" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>266</v>
+      </c>
+      <c r="B106" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>267</v>
+      </c>
+      <c r="B107" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>268</v>
+      </c>
+      <c r="B108" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>269</v>
+      </c>
+      <c r="B109" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>270</v>
+      </c>
+      <c r="B110" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>271</v>
+      </c>
+      <c r="B111" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>272</v>
+      </c>
+      <c r="B112" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>273</v>
+      </c>
+      <c r="B113" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>274</v>
+      </c>
+      <c r="B114" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>275</v>
+      </c>
+      <c r="B115" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>276</v>
+      </c>
+      <c r="B116" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>277</v>
+      </c>
+      <c r="B117" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>278</v>
+      </c>
+      <c r="B118" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>279</v>
+      </c>
+      <c r="B119" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>280</v>
+      </c>
+      <c r="B120" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>281</v>
+      </c>
+      <c r="B121" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>282</v>
+      </c>
+      <c r="B122" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>283</v>
+      </c>
+      <c r="B123" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>284</v>
+      </c>
+      <c r="B124" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>285</v>
+      </c>
+      <c r="B125" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>286</v>
+      </c>
+      <c r="B126" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>287</v>
+      </c>
+      <c r="B127" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>288</v>
+      </c>
+      <c r="B128" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>289</v>
+      </c>
+      <c r="B129" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>290</v>
+      </c>
+      <c r="B130" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>291</v>
+      </c>
+      <c r="B131" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>292</v>
+      </c>
+      <c r="B132" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>293</v>
+      </c>
+      <c r="B133" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>294</v>
+      </c>
+      <c r="B134" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>295</v>
+      </c>
+      <c r="B135" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>296</v>
+      </c>
+      <c r="B136" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>297</v>
+      </c>
+      <c r="B137" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>298</v>
+      </c>
+      <c r="B138" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>299</v>
+      </c>
+      <c r="B139" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>300</v>
+      </c>
+      <c r="B140" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>301</v>
+      </c>
+      <c r="B141" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>302</v>
+      </c>
+      <c r="B142" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>303</v>
+      </c>
+      <c r="B143" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>304</v>
+      </c>
+      <c r="B144" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>305</v>
+      </c>
+      <c r="B145" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>306</v>
+      </c>
+      <c r="B146" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>307</v>
+      </c>
+      <c r="B147" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>308</v>
+      </c>
+      <c r="B148" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>309</v>
+      </c>
+      <c r="B149" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>310</v>
+      </c>
+      <c r="B150" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>311</v>
+      </c>
+      <c r="B151" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>312</v>
+      </c>
+      <c r="B152" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>313</v>
+      </c>
+      <c r="B153" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>314</v>
+      </c>
+      <c r="B154" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>315</v>
+      </c>
+      <c r="B155" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>316</v>
+      </c>
+      <c r="B156" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>317</v>
+      </c>
+      <c r="B157" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>318</v>
+      </c>
+      <c r="B158" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>319</v>
+      </c>
+      <c r="B159" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>320</v>
+      </c>
+      <c r="B160" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>321</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>322</v>
+      </c>
+      <c r="B162" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>323</v>
+      </c>
+      <c r="B163" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>324</v>
+      </c>
+      <c r="B164" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>325</v>
+      </c>
+      <c r="B165" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>326</v>
+      </c>
+      <c r="B166" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>327</v>
+      </c>
+      <c r="B167" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>328</v>
+      </c>
+      <c r="B168" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>329</v>
+      </c>
+      <c r="B169" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>330</v>
+      </c>
+      <c r="B170" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>331</v>
+      </c>
+      <c r="B171" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>332</v>
+      </c>
+      <c r="B172" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>333</v>
+      </c>
+      <c r="B173" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>334</v>
+      </c>
+      <c r="B174" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>335</v>
+      </c>
+      <c r="B175" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>336</v>
+      </c>
+      <c r="B176" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>337</v>
+      </c>
+      <c r="B177" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>338</v>
+      </c>
+      <c r="B178" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>339</v>
+      </c>
+      <c r="B179" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>340</v>
+      </c>
+      <c r="B180" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>341</v>
+      </c>
+      <c r="B181" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>342</v>
+      </c>
+      <c r="B182" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>343</v>
+      </c>
+      <c r="B183" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>344</v>
+      </c>
+      <c r="B184" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>345</v>
+      </c>
+      <c r="B185" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>346</v>
+      </c>
+      <c r="B186" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>347</v>
+      </c>
+      <c r="B187" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>348</v>
+      </c>
+      <c r="B188" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>349</v>
+      </c>
+      <c r="B189" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>350</v>
+      </c>
+      <c r="B190" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>351</v>
+      </c>
+      <c r="B191" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>352</v>
+      </c>
+      <c r="B192" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>353</v>
+      </c>
+      <c r="B193" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>354</v>
+      </c>
+      <c r="B194" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>355</v>
+      </c>
+      <c r="B195" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>356</v>
+      </c>
+      <c r="B196" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>357</v>
+      </c>
+      <c r="B197" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>358</v>
+      </c>
+      <c r="B198" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>359</v>
+      </c>
+      <c r="B199" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>360</v>
+      </c>
+      <c r="B200" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>361</v>
+      </c>
+      <c r="B201" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>362</v>
+      </c>
+      <c r="B202" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>363</v>
+      </c>
+      <c r="B203" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>364</v>
+      </c>
+      <c r="B204" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>365</v>
+      </c>
+      <c r="B205" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>366</v>
+      </c>
+      <c r="B206" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>367</v>
+      </c>
+      <c r="B207" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>368</v>
+      </c>
+      <c r="B208" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>369</v>
+      </c>
+      <c r="B209" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>370</v>
+      </c>
+      <c r="B210" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>371</v>
+      </c>
+      <c r="B211" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>372</v>
+      </c>
+      <c r="B212" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>373</v>
+      </c>
+      <c r="B213" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>374</v>
+      </c>
+      <c r="B214" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>375</v>
+      </c>
+      <c r="B215" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>376</v>
+      </c>
+      <c r="B216" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>377</v>
+      </c>
+      <c r="B217" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>378</v>
+      </c>
+      <c r="B218" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>379</v>
+      </c>
+      <c r="B219" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>380</v>
+      </c>
+      <c r="B220" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>381</v>
+      </c>
+      <c r="B221" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>382</v>
+      </c>
+      <c r="B222" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>383</v>
+      </c>
+      <c r="B223" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>384</v>
+      </c>
+      <c r="B224" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>385</v>
+      </c>
+      <c r="B225" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>386</v>
+      </c>
+      <c r="B226" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>387</v>
+      </c>
+      <c r="B227" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>388</v>
+      </c>
+      <c r="B228" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>389</v>
+      </c>
+      <c r="B229" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>390</v>
+      </c>
+      <c r="B230" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>391</v>
+      </c>
+      <c r="B231" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>392</v>
+      </c>
+      <c r="B232" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>393</v>
+      </c>
+      <c r="B233" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>394</v>
+      </c>
+      <c r="B234" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>395</v>
+      </c>
+      <c r="B235" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>396</v>
+      </c>
+      <c r="B236" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>397</v>
+      </c>
+      <c r="B237" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>398</v>
+      </c>
+      <c r="B238" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>399</v>
+      </c>
+      <c r="B239" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>400</v>
+      </c>
+      <c r="B240" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>401</v>
+      </c>
+      <c r="B241" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>402</v>
+      </c>
+      <c r="B242" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>403</v>
+      </c>
+      <c r="B243" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>404</v>
+      </c>
+      <c r="B244" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>405</v>
+      </c>
+      <c r="B245" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>406</v>
+      </c>
+      <c r="B246" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>407</v>
+      </c>
+      <c r="B247" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>408</v>
+      </c>
+      <c r="B248" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>411</v>
+      </c>
+      <c r="B249" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>410</v>
+      </c>
+      <c r="B250" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>409</v>
+      </c>
+      <c r="B251" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FFF438-1224-4514-9417-0F42187BB325}">
+  <dimension ref="A1:A164"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>145</v>
       </c>
     </row>

--- a/GTAPmap.xlsx
+++ b/GTAPmap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Projects\MyGTAP Tools\MyGTAP-ExtraDat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA7C17E-C043-4886-9A0F-CC0BBF085975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EED02C2-E823-4A96-8960-9BBE4D949F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="15552" windowHeight="16656" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3456" yWindow="3456" windowWidth="23040" windowHeight="12120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v9a_map" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="417">
   <si>
     <t>afg</t>
   </si>
@@ -1326,9 +1326,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1633,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B250"/>
   <sheetViews>
-    <sheetView topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B250"/>
+    <sheetView topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="A251" sqref="A251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1657,7 +1656,7 @@
         <v>163</v>
       </c>
       <c r="B2" t="str">
-        <f ca="1">+VLOOKUP(A2,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ref="B2:B28" ca="1" si="0">+VLOOKUP(A2,A$2:B$251,2,FALSE)</f>
         <v>xsa</v>
       </c>
     </row>
@@ -1666,7 +1665,7 @@
         <v>166</v>
       </c>
       <c r="B3" t="str">
-        <f ca="1">+VLOOKUP(A3,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>fin</v>
       </c>
     </row>
@@ -1675,7 +1674,7 @@
         <v>167</v>
       </c>
       <c r="B4" t="str">
-        <f ca="1">+VLOOKUP(A4,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>alb</v>
       </c>
     </row>
@@ -1684,7 +1683,7 @@
         <v>223</v>
       </c>
       <c r="B5" t="str">
-        <f ca="1">+VLOOKUP(A5,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>xnf</v>
       </c>
     </row>
@@ -1693,7 +1692,7 @@
         <v>172</v>
       </c>
       <c r="B6" t="str">
-        <f ca="1">+VLOOKUP(A6,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>xoc</v>
       </c>
     </row>
@@ -1702,7 +1701,7 @@
         <v>168</v>
       </c>
       <c r="B7" t="str">
-        <f ca="1">+VLOOKUP(A7,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>xer</v>
       </c>
     </row>
@@ -1711,7 +1710,7 @@
         <v>164</v>
       </c>
       <c r="B8" t="str">
-        <f ca="1">+VLOOKUP(A8,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>xac</v>
       </c>
     </row>
@@ -1720,7 +1719,7 @@
         <v>165</v>
       </c>
       <c r="B9" t="str">
-        <f ca="1">+VLOOKUP(A9,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>xcb</v>
       </c>
     </row>
@@ -1729,7 +1728,7 @@
         <v>173</v>
       </c>
       <c r="B10" t="str">
-        <f ca="1">+VLOOKUP(A10,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>xtw</v>
       </c>
     </row>
@@ -1738,7 +1737,7 @@
         <v>175</v>
       </c>
       <c r="B11" t="str">
-        <f ca="1">+VLOOKUP(A11,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>xcb</v>
       </c>
     </row>
@@ -1747,7 +1746,7 @@
         <v>170</v>
       </c>
       <c r="B12" t="str">
-        <f ca="1">+VLOOKUP(A12,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>arg</v>
       </c>
     </row>
@@ -1756,7 +1755,7 @@
         <v>171</v>
       </c>
       <c r="B13" t="str">
-        <f ca="1">+VLOOKUP(A13,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>arm</v>
       </c>
     </row>
@@ -1765,7 +1764,7 @@
         <v>162</v>
       </c>
       <c r="B14" t="str">
-        <f ca="1">+VLOOKUP(A14,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>xcb</v>
       </c>
     </row>
@@ -1774,7 +1773,7 @@
         <v>176</v>
       </c>
       <c r="B15" t="str">
-        <f ca="1">+VLOOKUP(A15,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>aus</v>
       </c>
     </row>
@@ -1783,7 +1782,7 @@
         <v>177</v>
       </c>
       <c r="B16" t="str">
-        <f ca="1">+VLOOKUP(A16,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>aut</v>
       </c>
     </row>
@@ -1792,7 +1791,7 @@
         <v>178</v>
       </c>
       <c r="B17" t="str">
-        <f ca="1">+VLOOKUP(A17,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>aze</v>
       </c>
     </row>
@@ -1801,7 +1800,7 @@
         <v>186</v>
       </c>
       <c r="B18" t="str">
-        <f ca="1">+VLOOKUP(A18,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>xcb</v>
       </c>
     </row>
@@ -1810,7 +1809,7 @@
         <v>185</v>
       </c>
       <c r="B19" t="str">
-        <f ca="1">+VLOOKUP(A19,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>bhr</v>
       </c>
     </row>
@@ -1819,7 +1818,7 @@
         <v>183</v>
       </c>
       <c r="B20" t="str">
-        <f ca="1">+VLOOKUP(A20,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>bgd</v>
       </c>
     </row>
@@ -1828,7 +1827,7 @@
         <v>193</v>
       </c>
       <c r="B21" t="str">
-        <f ca="1">+VLOOKUP(A21,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>xcb</v>
       </c>
     </row>
@@ -1837,7 +1836,7 @@
         <v>188</v>
       </c>
       <c r="B22" t="str">
-        <f ca="1">+VLOOKUP(A22,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>blr</v>
       </c>
     </row>
@@ -1846,7 +1845,7 @@
         <v>180</v>
       </c>
       <c r="B23" t="str">
-        <f ca="1">+VLOOKUP(A23,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>bel</v>
       </c>
     </row>
@@ -1855,7 +1854,7 @@
         <v>189</v>
       </c>
       <c r="B24" t="str">
-        <f ca="1">+VLOOKUP(A24,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>xca</v>
       </c>
     </row>
@@ -1864,7 +1863,7 @@
         <v>181</v>
       </c>
       <c r="B25" t="str">
-        <f ca="1">+VLOOKUP(A25,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>ben</v>
       </c>
     </row>
@@ -1873,7 +1872,7 @@
         <v>190</v>
       </c>
       <c r="B26" t="str">
-        <f ca="1">+VLOOKUP(A26,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>xna</v>
       </c>
     </row>
@@ -1882,7 +1881,7 @@
         <v>195</v>
       </c>
       <c r="B27" t="str">
-        <f ca="1">+VLOOKUP(A27,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>xsa</v>
       </c>
     </row>
@@ -1891,7 +1890,7 @@
         <v>191</v>
       </c>
       <c r="B28" t="str">
-        <f ca="1">+VLOOKUP(A28,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>bol</v>
       </c>
     </row>
@@ -1908,7 +1907,7 @@
         <v>187</v>
       </c>
       <c r="B30" t="str">
-        <f ca="1">+VLOOKUP(A30,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ref="B30:B61" ca="1" si="1">+VLOOKUP(A30,A$2:B$251,2,FALSE)</f>
         <v>xer</v>
       </c>
     </row>
@@ -1917,7 +1916,7 @@
         <v>197</v>
       </c>
       <c r="B31" t="str">
-        <f ca="1">+VLOOKUP(A31,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>bwa</v>
       </c>
     </row>
@@ -1926,7 +1925,7 @@
         <v>196</v>
       </c>
       <c r="B32" t="str">
-        <f ca="1">+VLOOKUP(A32,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>xtw</v>
       </c>
     </row>
@@ -1935,7 +1934,7 @@
         <v>192</v>
       </c>
       <c r="B33" t="str">
-        <f ca="1">+VLOOKUP(A33,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>bra</v>
       </c>
     </row>
@@ -1944,7 +1943,7 @@
         <v>264</v>
       </c>
       <c r="B34" t="str">
-        <f ca="1">+VLOOKUP(A34,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>xtw</v>
       </c>
     </row>
@@ -1953,7 +1952,7 @@
         <v>194</v>
       </c>
       <c r="B35" t="str">
-        <f ca="1">+VLOOKUP(A35,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>brn</v>
       </c>
     </row>
@@ -1962,7 +1961,7 @@
         <v>184</v>
       </c>
       <c r="B36" t="str">
-        <f ca="1">+VLOOKUP(A36,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>bgr</v>
       </c>
     </row>
@@ -1971,7 +1970,7 @@
         <v>182</v>
       </c>
       <c r="B37" t="str">
-        <f ca="1">+VLOOKUP(A37,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>bfa</v>
       </c>
     </row>
@@ -1980,7 +1979,7 @@
         <v>179</v>
       </c>
       <c r="B38" t="str">
-        <f ca="1">+VLOOKUP(A38,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>xec</v>
       </c>
     </row>
@@ -1989,7 +1988,7 @@
         <v>211</v>
       </c>
       <c r="B39" t="str">
-        <f ca="1">+VLOOKUP(A39,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>xwf</v>
       </c>
     </row>
@@ -1998,7 +1997,7 @@
         <v>278</v>
       </c>
       <c r="B40" t="str">
-        <f ca="1">+VLOOKUP(A40,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>khm</v>
       </c>
     </row>
@@ -2007,7 +2006,7 @@
         <v>205</v>
       </c>
       <c r="B41" t="str">
-        <f ca="1">+VLOOKUP(A41,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>cmr</v>
       </c>
     </row>
@@ -2016,7 +2015,7 @@
         <v>199</v>
       </c>
       <c r="B42" t="str">
-        <f ca="1">+VLOOKUP(A42,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>can</v>
       </c>
     </row>
@@ -2025,7 +2024,7 @@
         <v>215</v>
       </c>
       <c r="B43" t="str">
-        <f ca="1">+VLOOKUP(A43,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>xcb</v>
       </c>
     </row>
@@ -2034,7 +2033,7 @@
         <v>198</v>
       </c>
       <c r="B44" t="str">
-        <f ca="1">+VLOOKUP(A44,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>xcf</v>
       </c>
     </row>
@@ -2043,7 +2042,7 @@
         <v>372</v>
       </c>
       <c r="B45" t="str">
-        <f ca="1">+VLOOKUP(A45,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>xcf</v>
       </c>
     </row>
@@ -2052,7 +2051,7 @@
         <v>202</v>
       </c>
       <c r="B46" t="str">
-        <f ca="1">+VLOOKUP(A46,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>chl</v>
       </c>
     </row>
@@ -2061,7 +2060,7 @@
         <v>203</v>
       </c>
       <c r="B47" t="str">
-        <f ca="1">+VLOOKUP(A47,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>chn</v>
       </c>
     </row>
@@ -2070,7 +2069,7 @@
         <v>214</v>
       </c>
       <c r="B48" t="str">
-        <f ca="1">+VLOOKUP(A48,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>aus</v>
       </c>
     </row>
@@ -2079,7 +2078,7 @@
         <v>200</v>
       </c>
       <c r="B49" t="str">
-        <f ca="1">+VLOOKUP(A49,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>aus</v>
       </c>
     </row>
@@ -2088,7 +2087,7 @@
         <v>209</v>
       </c>
       <c r="B50" t="str">
-        <f ca="1">+VLOOKUP(A50,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>col</v>
       </c>
     </row>
@@ -2097,7 +2096,7 @@
         <v>210</v>
       </c>
       <c r="B51" t="str">
-        <f ca="1">+VLOOKUP(A51,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>xec</v>
       </c>
     </row>
@@ -2106,7 +2105,7 @@
         <v>207</v>
       </c>
       <c r="B52" t="str">
-        <f ca="1">+VLOOKUP(A52,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>xcf</v>
       </c>
     </row>
@@ -2115,7 +2114,7 @@
         <v>206</v>
       </c>
       <c r="B53" t="str">
-        <f ca="1">+VLOOKUP(A53,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>xcf</v>
       </c>
     </row>
@@ -2124,7 +2123,7 @@
         <v>208</v>
       </c>
       <c r="B54" t="str">
-        <f ca="1">+VLOOKUP(A54,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>xoc</v>
       </c>
     </row>
@@ -2133,7 +2132,7 @@
         <v>212</v>
       </c>
       <c r="B55" t="str">
-        <f ca="1">+VLOOKUP(A55,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>cri</v>
       </c>
     </row>
@@ -2142,7 +2141,7 @@
         <v>204</v>
       </c>
       <c r="B56" t="str">
-        <f ca="1">+VLOOKUP(A56,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>civ</v>
       </c>
     </row>
@@ -2151,7 +2150,7 @@
         <v>258</v>
       </c>
       <c r="B57" t="str">
-        <f ca="1">+VLOOKUP(A57,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>hrv</v>
       </c>
     </row>
@@ -2160,7 +2159,7 @@
         <v>213</v>
       </c>
       <c r="B58" t="str">
-        <f ca="1">+VLOOKUP(A58,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>xcb</v>
       </c>
     </row>
@@ -2169,7 +2168,7 @@
         <v>406</v>
       </c>
       <c r="B59" t="str">
-        <f ca="1">+VLOOKUP(A59,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>xcb</v>
       </c>
     </row>
@@ -2178,7 +2177,7 @@
         <v>216</v>
       </c>
       <c r="B60" t="str">
-        <f ca="1">+VLOOKUP(A60,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>cyp</v>
       </c>
     </row>
@@ -2187,7 +2186,7 @@
         <v>217</v>
       </c>
       <c r="B61" t="str">
-        <f ca="1">+VLOOKUP(A61,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>cze</v>
       </c>
     </row>
@@ -2196,7 +2195,7 @@
         <v>221</v>
       </c>
       <c r="B62" t="str">
-        <f ca="1">+VLOOKUP(A62,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ref="B62:B93" ca="1" si="2">+VLOOKUP(A62,A$2:B$251,2,FALSE)</f>
         <v>dnk</v>
       </c>
     </row>
@@ -2205,7 +2204,7 @@
         <v>219</v>
       </c>
       <c r="B63" t="str">
-        <f ca="1">+VLOOKUP(A63,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xec</v>
       </c>
     </row>
@@ -2214,7 +2213,7 @@
         <v>220</v>
       </c>
       <c r="B64" t="str">
-        <f ca="1">+VLOOKUP(A64,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xcb</v>
       </c>
     </row>
@@ -2223,7 +2222,7 @@
         <v>222</v>
       </c>
       <c r="B65" t="str">
-        <f ca="1">+VLOOKUP(A65,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>dom</v>
       </c>
     </row>
@@ -2232,7 +2231,7 @@
         <v>224</v>
       </c>
       <c r="B66" t="str">
-        <f ca="1">+VLOOKUP(A66,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>ecu</v>
       </c>
     </row>
@@ -2241,7 +2240,7 @@
         <v>225</v>
       </c>
       <c r="B67" t="str">
-        <f ca="1">+VLOOKUP(A67,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>egy</v>
       </c>
     </row>
@@ -2250,7 +2249,7 @@
         <v>358</v>
       </c>
       <c r="B68" t="str">
-        <f ca="1">+VLOOKUP(A68,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>slv</v>
       </c>
     </row>
@@ -2259,7 +2258,7 @@
         <v>247</v>
       </c>
       <c r="B69" t="str">
-        <f ca="1">+VLOOKUP(A69,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xcf</v>
       </c>
     </row>
@@ -2268,7 +2267,7 @@
         <v>226</v>
       </c>
       <c r="B70" t="str">
-        <f ca="1">+VLOOKUP(A70,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xec</v>
       </c>
     </row>
@@ -2277,7 +2276,7 @@
         <v>229</v>
       </c>
       <c r="B71" t="str">
-        <f ca="1">+VLOOKUP(A71,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>est</v>
       </c>
     </row>
@@ -2286,7 +2285,7 @@
         <v>368</v>
       </c>
       <c r="B72" t="str">
-        <f ca="1">+VLOOKUP(A72,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xsc</v>
       </c>
     </row>
@@ -2295,7 +2294,7 @@
         <v>230</v>
       </c>
       <c r="B73" t="str">
-        <f ca="1">+VLOOKUP(A73,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>eth</v>
       </c>
     </row>
@@ -2304,7 +2303,7 @@
         <v>233</v>
       </c>
       <c r="B74" t="str">
-        <f ca="1">+VLOOKUP(A74,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xsm</v>
       </c>
     </row>
@@ -2313,7 +2312,7 @@
         <v>235</v>
       </c>
       <c r="B75" t="str">
-        <f ca="1">+VLOOKUP(A75,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xer</v>
       </c>
     </row>
@@ -2322,7 +2321,7 @@
         <v>232</v>
       </c>
       <c r="B76" t="str">
-        <f ca="1">+VLOOKUP(A76,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xoc</v>
       </c>
     </row>
@@ -2331,7 +2330,7 @@
         <v>231</v>
       </c>
       <c r="B77" t="str">
-        <f ca="1">+VLOOKUP(A77,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fin</v>
       </c>
     </row>
@@ -2340,7 +2339,7 @@
         <v>234</v>
       </c>
       <c r="B78" t="str">
-        <f ca="1">+VLOOKUP(A78,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fra</v>
       </c>
     </row>
@@ -2349,7 +2348,7 @@
         <v>252</v>
       </c>
       <c r="B79" t="str">
-        <f ca="1">+VLOOKUP(A79,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xsm</v>
       </c>
     </row>
@@ -2358,7 +2357,7 @@
         <v>343</v>
       </c>
       <c r="B80" t="str">
-        <f ca="1">+VLOOKUP(A80,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xoc</v>
       </c>
     </row>
@@ -2367,7 +2366,7 @@
         <v>174</v>
       </c>
       <c r="B81" t="str">
-        <f ca="1">+VLOOKUP(A81,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xtw</v>
       </c>
     </row>
@@ -2376,7 +2375,7 @@
         <v>237</v>
       </c>
       <c r="B82" t="str">
-        <f ca="1">+VLOOKUP(A82,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xcf</v>
       </c>
     </row>
@@ -2385,7 +2384,7 @@
         <v>245</v>
       </c>
       <c r="B83" t="str">
-        <f ca="1">+VLOOKUP(A83,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xwf</v>
       </c>
     </row>
@@ -2394,7 +2393,7 @@
         <v>239</v>
       </c>
       <c r="B84" t="str">
-        <f ca="1">+VLOOKUP(A84,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>geo</v>
       </c>
     </row>
@@ -2403,7 +2402,7 @@
         <v>218</v>
       </c>
       <c r="B85" t="str">
-        <f ca="1">+VLOOKUP(A85,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>deu</v>
       </c>
     </row>
@@ -2412,7 +2411,7 @@
         <v>241</v>
       </c>
       <c r="B86" t="str">
-        <f ca="1">+VLOOKUP(A86,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>gha</v>
       </c>
     </row>
@@ -2421,7 +2420,7 @@
         <v>242</v>
       </c>
       <c r="B87" t="str">
-        <f ca="1">+VLOOKUP(A87,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xer</v>
       </c>
     </row>
@@ -2430,7 +2429,7 @@
         <v>248</v>
       </c>
       <c r="B88" t="str">
-        <f ca="1">+VLOOKUP(A88,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>grc</v>
       </c>
     </row>
@@ -2439,7 +2438,7 @@
         <v>250</v>
       </c>
       <c r="B89" t="str">
-        <f ca="1">+VLOOKUP(A89,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xna</v>
       </c>
     </row>
@@ -2448,7 +2447,7 @@
         <v>249</v>
       </c>
       <c r="B90" t="str">
-        <f ca="1">+VLOOKUP(A90,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xcb</v>
       </c>
     </row>
@@ -2457,7 +2456,7 @@
         <v>244</v>
       </c>
       <c r="B91" t="str">
-        <f ca="1">+VLOOKUP(A91,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fra</v>
       </c>
     </row>
@@ -2466,7 +2465,7 @@
         <v>253</v>
       </c>
       <c r="B92" t="str">
-        <f ca="1">+VLOOKUP(A92,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xoc</v>
       </c>
     </row>
@@ -2475,7 +2474,7 @@
         <v>251</v>
       </c>
       <c r="B93" t="str">
-        <f ca="1">+VLOOKUP(A93,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>gtm</v>
       </c>
     </row>
@@ -2484,7 +2483,7 @@
         <v>240</v>
       </c>
       <c r="B94" t="str">
-        <f ca="1">+VLOOKUP(A94,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ref="B94:B125" ca="1" si="3">+VLOOKUP(A94,A$2:B$251,2,FALSE)</f>
         <v>xer</v>
       </c>
     </row>
@@ -2493,7 +2492,7 @@
         <v>243</v>
       </c>
       <c r="B95" t="str">
-        <f ca="1">+VLOOKUP(A95,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>gin</v>
       </c>
     </row>
@@ -2502,7 +2501,7 @@
         <v>246</v>
       </c>
       <c r="B96" t="str">
-        <f ca="1">+VLOOKUP(A96,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>xwf</v>
       </c>
     </row>
@@ -2511,7 +2510,7 @@
         <v>254</v>
       </c>
       <c r="B97" t="str">
-        <f ca="1">+VLOOKUP(A97,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>xsm</v>
       </c>
     </row>
@@ -2520,7 +2519,7 @@
         <v>259</v>
       </c>
       <c r="B98" t="str">
-        <f ca="1">+VLOOKUP(A98,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>xsm</v>
       </c>
     </row>
@@ -2529,7 +2528,7 @@
         <v>256</v>
       </c>
       <c r="B99" t="str">
-        <f ca="1">+VLOOKUP(A99,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>aus</v>
       </c>
     </row>
@@ -2538,7 +2537,7 @@
         <v>392</v>
       </c>
       <c r="B100" t="str">
-        <f ca="1">+VLOOKUP(A100,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>xer</v>
       </c>
     </row>
@@ -2547,7 +2546,7 @@
         <v>257</v>
       </c>
       <c r="B101" t="str">
-        <f ca="1">+VLOOKUP(A101,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>hnd</v>
       </c>
     </row>
@@ -2556,7 +2555,7 @@
         <v>255</v>
       </c>
       <c r="B102" t="str">
-        <f ca="1">+VLOOKUP(A102,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>hkg</v>
       </c>
     </row>
@@ -2565,7 +2564,7 @@
         <v>260</v>
       </c>
       <c r="B103" t="str">
-        <f ca="1">+VLOOKUP(A103,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>hun</v>
       </c>
     </row>
@@ -2574,7 +2573,7 @@
         <v>268</v>
       </c>
       <c r="B104" t="str">
-        <f ca="1">+VLOOKUP(A104,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>xef</v>
       </c>
     </row>
@@ -2583,7 +2582,7 @@
         <v>263</v>
       </c>
       <c r="B105" t="str">
-        <f ca="1">+VLOOKUP(A105,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>ind</v>
       </c>
     </row>
@@ -2592,7 +2591,7 @@
         <v>261</v>
       </c>
       <c r="B106" t="str">
-        <f ca="1">+VLOOKUP(A106,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>idn</v>
       </c>
     </row>
@@ -2601,7 +2600,7 @@
         <v>266</v>
       </c>
       <c r="B107" t="str">
-        <f ca="1">+VLOOKUP(A107,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>irn</v>
       </c>
     </row>
@@ -2610,7 +2609,7 @@
         <v>267</v>
       </c>
       <c r="B108" t="str">
-        <f ca="1">+VLOOKUP(A108,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>xws</v>
       </c>
     </row>
@@ -2619,7 +2618,7 @@
         <v>265</v>
       </c>
       <c r="B109" t="str">
-        <f ca="1">+VLOOKUP(A109,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>irl</v>
       </c>
     </row>
@@ -2628,7 +2627,7 @@
         <v>262</v>
       </c>
       <c r="B110" t="str">
-        <f ca="1">+VLOOKUP(A110,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>xer</v>
       </c>
     </row>
@@ -2637,7 +2636,7 @@
         <v>269</v>
       </c>
       <c r="B111" t="str">
-        <f ca="1">+VLOOKUP(A111,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>isr</v>
       </c>
     </row>
@@ -2646,7 +2645,7 @@
         <v>270</v>
       </c>
       <c r="B112" t="str">
-        <f ca="1">+VLOOKUP(A112,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>ita</v>
       </c>
     </row>
@@ -2655,7 +2654,7 @@
         <v>271</v>
       </c>
       <c r="B113" t="str">
-        <f ca="1">+VLOOKUP(A113,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>jam</v>
       </c>
     </row>
@@ -2664,7 +2663,7 @@
         <v>274</v>
       </c>
       <c r="B114" t="str">
-        <f ca="1">+VLOOKUP(A114,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>jpn</v>
       </c>
     </row>
@@ -2673,7 +2672,7 @@
         <v>272</v>
       </c>
       <c r="B115" t="str">
-        <f ca="1">+VLOOKUP(A115,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>xer</v>
       </c>
     </row>
@@ -2682,7 +2681,7 @@
         <v>273</v>
       </c>
       <c r="B116" t="str">
-        <f ca="1">+VLOOKUP(A116,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>jor</v>
       </c>
     </row>
@@ -2691,7 +2690,7 @@
         <v>275</v>
       </c>
       <c r="B117" t="str">
-        <f ca="1">+VLOOKUP(A117,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>kaz</v>
       </c>
     </row>
@@ -2700,7 +2699,7 @@
         <v>276</v>
       </c>
       <c r="B118" t="str">
-        <f ca="1">+VLOOKUP(A118,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>ken</v>
       </c>
     </row>
@@ -2709,7 +2708,7 @@
         <v>279</v>
       </c>
       <c r="B119" t="str">
-        <f ca="1">+VLOOKUP(A119,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>xoc</v>
       </c>
     </row>
@@ -2718,7 +2717,7 @@
         <v>339</v>
       </c>
       <c r="B120" t="str">
-        <f ca="1">+VLOOKUP(A120,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>xea</v>
       </c>
     </row>
@@ -2727,7 +2726,7 @@
         <v>281</v>
       </c>
       <c r="B121" t="str">
-        <f ca="1">+VLOOKUP(A121,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>kor</v>
       </c>
     </row>
@@ -2736,7 +2735,7 @@
         <v>282</v>
       </c>
       <c r="B122" t="str">
-        <f ca="1">+VLOOKUP(A122,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>kwt</v>
       </c>
     </row>
@@ -2745,7 +2744,7 @@
         <v>277</v>
       </c>
       <c r="B123" t="str">
-        <f ca="1">+VLOOKUP(A123,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>kgz</v>
       </c>
     </row>
@@ -2754,7 +2753,7 @@
         <v>283</v>
       </c>
       <c r="B124" t="str">
-        <f ca="1">+VLOOKUP(A124,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>lao</v>
       </c>
     </row>
@@ -2763,7 +2762,7 @@
         <v>293</v>
       </c>
       <c r="B125" t="str">
-        <f ca="1">+VLOOKUP(A125,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>lva</v>
       </c>
     </row>
@@ -2772,7 +2771,7 @@
         <v>284</v>
       </c>
       <c r="B126" t="str">
-        <f ca="1">+VLOOKUP(A126,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ref="B126:B157" ca="1" si="4">+VLOOKUP(A126,A$2:B$251,2,FALSE)</f>
         <v>xws</v>
       </c>
     </row>
@@ -2781,7 +2780,7 @@
         <v>290</v>
       </c>
       <c r="B127" t="str">
-        <f ca="1">+VLOOKUP(A127,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xsc</v>
       </c>
     </row>
@@ -2790,7 +2789,7 @@
         <v>285</v>
       </c>
       <c r="B128" t="str">
-        <f ca="1">+VLOOKUP(A128,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xwf</v>
       </c>
     </row>
@@ -2799,7 +2798,7 @@
         <v>286</v>
       </c>
       <c r="B129" t="str">
-        <f ca="1">+VLOOKUP(A129,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xnf</v>
       </c>
     </row>
@@ -2808,7 +2807,7 @@
         <v>288</v>
       </c>
       <c r="B130" t="str">
-        <f ca="1">+VLOOKUP(A130,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xef</v>
       </c>
     </row>
@@ -2817,7 +2816,7 @@
         <v>291</v>
       </c>
       <c r="B131" t="str">
-        <f ca="1">+VLOOKUP(A131,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>ltu</v>
       </c>
     </row>
@@ -2826,7 +2825,7 @@
         <v>292</v>
       </c>
       <c r="B132" t="str">
-        <f ca="1">+VLOOKUP(A132,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>lux</v>
       </c>
     </row>
@@ -2835,7 +2834,7 @@
         <v>294</v>
       </c>
       <c r="B133" t="str">
-        <f ca="1">+VLOOKUP(A133,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xea</v>
       </c>
     </row>
@@ -2844,7 +2843,7 @@
         <v>298</v>
       </c>
       <c r="B134" t="str">
-        <f ca="1">+VLOOKUP(A134,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>mdg</v>
       </c>
     </row>
@@ -2853,7 +2852,7 @@
         <v>314</v>
       </c>
       <c r="B135" t="str">
-        <f ca="1">+VLOOKUP(A135,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>mwi</v>
       </c>
     </row>
@@ -2862,7 +2861,7 @@
         <v>315</v>
       </c>
       <c r="B136" t="str">
-        <f ca="1">+VLOOKUP(A136,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>mys</v>
       </c>
     </row>
@@ -2871,7 +2870,7 @@
         <v>299</v>
       </c>
       <c r="B137" t="str">
-        <f ca="1">+VLOOKUP(A137,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xsa</v>
       </c>
     </row>
@@ -2880,7 +2879,7 @@
         <v>303</v>
       </c>
       <c r="B138" t="str">
-        <f ca="1">+VLOOKUP(A138,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xwf</v>
       </c>
     </row>
@@ -2889,7 +2888,7 @@
         <v>304</v>
       </c>
       <c r="B139" t="str">
-        <f ca="1">+VLOOKUP(A139,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>mlt</v>
       </c>
     </row>
@@ -2898,7 +2897,7 @@
         <v>301</v>
       </c>
       <c r="B140" t="str">
-        <f ca="1">+VLOOKUP(A140,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xoc</v>
       </c>
     </row>
@@ -2907,7 +2906,7 @@
         <v>312</v>
       </c>
       <c r="B141" t="str">
-        <f ca="1">+VLOOKUP(A141,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>fra</v>
       </c>
     </row>
@@ -2916,7 +2915,7 @@
         <v>310</v>
       </c>
       <c r="B142" t="str">
-        <f ca="1">+VLOOKUP(A142,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xwf</v>
       </c>
     </row>
@@ -2925,7 +2924,7 @@
         <v>313</v>
       </c>
       <c r="B143" t="str">
-        <f ca="1">+VLOOKUP(A143,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>mus</v>
       </c>
     </row>
@@ -2934,7 +2933,7 @@
         <v>316</v>
       </c>
       <c r="B144" t="str">
-        <f ca="1">+VLOOKUP(A144,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xec</v>
       </c>
     </row>
@@ -2943,7 +2942,7 @@
         <v>300</v>
       </c>
       <c r="B145" t="str">
-        <f ca="1">+VLOOKUP(A145,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>mex</v>
       </c>
     </row>
@@ -2952,7 +2951,7 @@
         <v>236</v>
       </c>
       <c r="B146" t="str">
-        <f ca="1">+VLOOKUP(A146,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xoc</v>
       </c>
     </row>
@@ -2961,7 +2960,7 @@
         <v>297</v>
       </c>
       <c r="B147" t="str">
-        <f ca="1">+VLOOKUP(A147,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xee</v>
       </c>
     </row>
@@ -2970,7 +2969,7 @@
         <v>296</v>
       </c>
       <c r="B148" t="str">
-        <f ca="1">+VLOOKUP(A148,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xer</v>
       </c>
     </row>
@@ -2979,7 +2978,7 @@
         <v>307</v>
       </c>
       <c r="B149" t="str">
-        <f ca="1">+VLOOKUP(A149,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>mng</v>
       </c>
     </row>
@@ -2988,7 +2987,7 @@
         <v>306</v>
       </c>
       <c r="B150" t="str">
-        <f ca="1">+VLOOKUP(A150,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xer</v>
       </c>
     </row>
@@ -2997,7 +2996,7 @@
         <v>311</v>
       </c>
       <c r="B151" t="str">
-        <f ca="1">+VLOOKUP(A151,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xcb</v>
       </c>
     </row>
@@ -3006,7 +3005,7 @@
         <v>295</v>
       </c>
       <c r="B152" t="str">
-        <f ca="1">+VLOOKUP(A152,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>mar</v>
       </c>
     </row>
@@ -3015,7 +3014,7 @@
         <v>309</v>
       </c>
       <c r="B153" t="str">
-        <f ca="1">+VLOOKUP(A153,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>moz</v>
       </c>
     </row>
@@ -3024,7 +3023,7 @@
         <v>305</v>
       </c>
       <c r="B154" t="str">
-        <f ca="1">+VLOOKUP(A154,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xse</v>
       </c>
     </row>
@@ -3033,7 +3032,7 @@
         <v>317</v>
       </c>
       <c r="B155" t="str">
-        <f ca="1">+VLOOKUP(A155,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>nam</v>
       </c>
     </row>
@@ -3042,7 +3041,7 @@
         <v>327</v>
       </c>
       <c r="B156" t="str">
-        <f ca="1">+VLOOKUP(A156,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xoc</v>
       </c>
     </row>
@@ -3051,7 +3050,7 @@
         <v>326</v>
       </c>
       <c r="B157" t="str">
-        <f ca="1">+VLOOKUP(A157,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>npl</v>
       </c>
     </row>
@@ -3060,7 +3059,7 @@
         <v>324</v>
       </c>
       <c r="B158" t="str">
-        <f ca="1">+VLOOKUP(A158,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ref="B158:B189" ca="1" si="5">+VLOOKUP(A158,A$2:B$251,2,FALSE)</f>
         <v>nld</v>
       </c>
     </row>
@@ -3069,7 +3068,7 @@
         <v>318</v>
       </c>
       <c r="B159" t="str">
-        <f ca="1">+VLOOKUP(A159,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>xoc</v>
       </c>
     </row>
@@ -3078,7 +3077,7 @@
         <v>328</v>
       </c>
       <c r="B160" t="str">
-        <f ca="1">+VLOOKUP(A160,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>nzl</v>
       </c>
     </row>
@@ -3087,7 +3086,7 @@
         <v>322</v>
       </c>
       <c r="B161" t="str">
-        <f ca="1">+VLOOKUP(A161,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>nic</v>
       </c>
     </row>
@@ -3096,7 +3095,7 @@
         <v>319</v>
       </c>
       <c r="B162" t="str">
-        <f ca="1">+VLOOKUP(A162,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>xwf</v>
       </c>
     </row>
@@ -3105,7 +3104,7 @@
         <v>321</v>
       </c>
       <c r="B163" t="str">
-        <f ca="1">+VLOOKUP(A163,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>nga</v>
       </c>
     </row>
@@ -3114,7 +3113,7 @@
         <v>323</v>
       </c>
       <c r="B164" t="str">
-        <f ca="1">+VLOOKUP(A164,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>xoc</v>
       </c>
     </row>
@@ -3123,7 +3122,7 @@
         <v>320</v>
       </c>
       <c r="B165" t="str">
-        <f ca="1">+VLOOKUP(A165,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>aus</v>
       </c>
     </row>
@@ -3132,7 +3131,7 @@
         <v>302</v>
       </c>
       <c r="B166" t="str">
-        <f ca="1">+VLOOKUP(A166,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>xer</v>
       </c>
     </row>
@@ -3141,7 +3140,7 @@
         <v>308</v>
       </c>
       <c r="B167" t="str">
-        <f ca="1">+VLOOKUP(A167,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>xoc</v>
       </c>
     </row>
@@ -3150,7 +3149,7 @@
         <v>325</v>
       </c>
       <c r="B168" t="str">
-        <f ca="1">+VLOOKUP(A168,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>nor</v>
       </c>
     </row>
@@ -3159,7 +3158,7 @@
         <v>329</v>
       </c>
       <c r="B169" t="str">
-        <f ca="1">+VLOOKUP(A169,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>omn</v>
       </c>
     </row>
@@ -3168,7 +3167,7 @@
         <v>330</v>
       </c>
       <c r="B170" t="str">
-        <f ca="1">+VLOOKUP(A170,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>pak</v>
       </c>
     </row>
@@ -3177,7 +3176,7 @@
         <v>335</v>
       </c>
       <c r="B171" t="str">
-        <f ca="1">+VLOOKUP(A171,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>xoc</v>
       </c>
     </row>
@@ -3186,7 +3185,7 @@
         <v>342</v>
       </c>
       <c r="B172" t="str">
-        <f ca="1">+VLOOKUP(A172,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>xnf</v>
       </c>
     </row>
@@ -3195,7 +3194,7 @@
         <v>331</v>
       </c>
       <c r="B173" t="str">
-        <f ca="1">+VLOOKUP(A173,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>pan</v>
       </c>
     </row>
@@ -3204,7 +3203,7 @@
         <v>336</v>
       </c>
       <c r="B174" t="str">
-        <f ca="1">+VLOOKUP(A174,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>xoc</v>
       </c>
     </row>
@@ -3213,7 +3212,7 @@
         <v>341</v>
       </c>
       <c r="B175" t="str">
-        <f ca="1">+VLOOKUP(A175,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>pry</v>
       </c>
     </row>
@@ -3222,7 +3221,7 @@
         <v>333</v>
       </c>
       <c r="B176" t="str">
-        <f ca="1">+VLOOKUP(A176,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>per</v>
       </c>
     </row>
@@ -3231,7 +3230,7 @@
         <v>334</v>
       </c>
       <c r="B177" t="str">
-        <f ca="1">+VLOOKUP(A177,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>phl</v>
       </c>
     </row>
@@ -3240,7 +3239,7 @@
         <v>332</v>
       </c>
       <c r="B178" t="str">
-        <f ca="1">+VLOOKUP(A178,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>xoc</v>
       </c>
     </row>
@@ -3249,7 +3248,7 @@
         <v>337</v>
       </c>
       <c r="B179" t="str">
-        <f ca="1">+VLOOKUP(A179,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>pol</v>
       </c>
     </row>
@@ -3258,7 +3257,7 @@
         <v>340</v>
       </c>
       <c r="B180" t="str">
-        <f ca="1">+VLOOKUP(A180,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>prt</v>
       </c>
     </row>
@@ -3267,7 +3266,7 @@
         <v>338</v>
       </c>
       <c r="B181" t="str">
-        <f ca="1">+VLOOKUP(A181,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>pri</v>
       </c>
     </row>
@@ -3276,7 +3275,7 @@
         <v>344</v>
       </c>
       <c r="B182" t="str">
-        <f ca="1">+VLOOKUP(A182,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>qat</v>
       </c>
     </row>
@@ -3285,7 +3284,7 @@
         <v>345</v>
       </c>
       <c r="B183" t="str">
-        <f ca="1">+VLOOKUP(A183,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>fra</v>
       </c>
     </row>
@@ -3294,7 +3293,7 @@
         <v>346</v>
       </c>
       <c r="B184" t="str">
-        <f ca="1">+VLOOKUP(A184,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>rou</v>
       </c>
     </row>
@@ -3303,7 +3302,7 @@
         <v>347</v>
       </c>
       <c r="B185" t="str">
-        <f ca="1">+VLOOKUP(A185,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>rus</v>
       </c>
     </row>
@@ -3312,7 +3311,7 @@
         <v>348</v>
       </c>
       <c r="B186" t="str">
-        <f ca="1">+VLOOKUP(A186,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>rwa</v>
       </c>
     </row>
@@ -3329,7 +3328,7 @@
         <v>354</v>
       </c>
       <c r="B188" t="str">
-        <f ca="1">+VLOOKUP(A188,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ref="B188:B219" ca="1" si="6">+VLOOKUP(A188,A$2:B$251,2,FALSE)</f>
         <v>xwf</v>
       </c>
     </row>
@@ -3338,7 +3337,7 @@
         <v>280</v>
       </c>
       <c r="B189" t="str">
-        <f ca="1">+VLOOKUP(A189,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xcb</v>
       </c>
     </row>
@@ -3347,7 +3346,7 @@
         <v>287</v>
       </c>
       <c r="B190" t="str">
-        <f ca="1">+VLOOKUP(A190,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xcb</v>
       </c>
     </row>
@@ -3356,7 +3355,7 @@
         <v>407</v>
       </c>
       <c r="B191" t="str">
-        <f ca="1">+VLOOKUP(A191,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xcb</v>
       </c>
     </row>
@@ -3365,7 +3364,7 @@
         <v>361</v>
       </c>
       <c r="B192" t="str">
-        <f ca="1">+VLOOKUP(A192,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xna</v>
       </c>
     </row>
@@ -3374,7 +3373,7 @@
         <v>393</v>
       </c>
       <c r="B193" t="str">
-        <f ca="1">+VLOOKUP(A193,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xcb</v>
       </c>
     </row>
@@ -3383,7 +3382,7 @@
         <v>400</v>
       </c>
       <c r="B194" t="str">
-        <f ca="1">+VLOOKUP(A194,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xoc</v>
       </c>
     </row>
@@ -3392,7 +3391,7 @@
         <v>359</v>
       </c>
       <c r="B195" t="str">
-        <f ca="1">+VLOOKUP(A195,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xer</v>
       </c>
     </row>
@@ -3401,7 +3400,7 @@
         <v>363</v>
       </c>
       <c r="B196" t="str">
-        <f ca="1">+VLOOKUP(A196,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xac</v>
       </c>
     </row>
@@ -3410,7 +3409,7 @@
         <v>349</v>
       </c>
       <c r="B197" t="str">
-        <f ca="1">+VLOOKUP(A197,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>sau</v>
       </c>
     </row>
@@ -3419,7 +3418,7 @@
         <v>351</v>
       </c>
       <c r="B198" t="str">
-        <f ca="1">+VLOOKUP(A198,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>sen</v>
       </c>
     </row>
@@ -3428,7 +3427,7 @@
         <v>362</v>
       </c>
       <c r="B199" t="str">
-        <f ca="1">+VLOOKUP(A199,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xer</v>
       </c>
     </row>
@@ -3437,7 +3436,7 @@
         <v>369</v>
       </c>
       <c r="B200" t="str">
-        <f ca="1">+VLOOKUP(A200,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xec</v>
       </c>
     </row>
@@ -3446,7 +3445,7 @@
         <v>357</v>
       </c>
       <c r="B201" t="str">
-        <f ca="1">+VLOOKUP(A201,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xwf</v>
       </c>
     </row>
@@ -3455,7 +3454,7 @@
         <v>352</v>
       </c>
       <c r="B202" t="str">
-        <f ca="1">+VLOOKUP(A202,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>sgp</v>
       </c>
     </row>
@@ -3464,7 +3463,7 @@
         <v>408</v>
       </c>
       <c r="B203" t="str">
-        <f ca="1">+VLOOKUP(A203,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xcb</v>
       </c>
     </row>
@@ -3473,7 +3472,7 @@
         <v>365</v>
       </c>
       <c r="B204" t="str">
-        <f ca="1">+VLOOKUP(A204,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>svk</v>
       </c>
     </row>
@@ -3482,7 +3481,7 @@
         <v>366</v>
       </c>
       <c r="B205" t="str">
-        <f ca="1">+VLOOKUP(A205,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>svn</v>
       </c>
     </row>
@@ -3491,7 +3490,7 @@
         <v>356</v>
       </c>
       <c r="B206" t="str">
-        <f ca="1">+VLOOKUP(A206,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xoc</v>
       </c>
     </row>
@@ -3500,7 +3499,7 @@
         <v>360</v>
       </c>
       <c r="B207" t="str">
-        <f ca="1">+VLOOKUP(A207,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xec</v>
       </c>
     </row>
@@ -3509,7 +3508,7 @@
         <v>402</v>
       </c>
       <c r="B208" t="str">
-        <f ca="1">+VLOOKUP(A208,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>zaf</v>
       </c>
     </row>
@@ -3518,7 +3517,7 @@
         <v>353</v>
       </c>
       <c r="B209" t="str">
-        <f ca="1">+VLOOKUP(A209,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xsm</v>
       </c>
     </row>
@@ -3527,7 +3526,7 @@
         <v>405</v>
       </c>
       <c r="B210" t="str">
-        <f ca="1">+VLOOKUP(A210,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xec</v>
       </c>
     </row>
@@ -3536,7 +3535,7 @@
         <v>228</v>
       </c>
       <c r="B211" t="str">
-        <f ca="1">+VLOOKUP(A211,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>esp</v>
       </c>
     </row>
@@ -3545,7 +3544,7 @@
         <v>289</v>
       </c>
       <c r="B212" t="str">
-        <f ca="1">+VLOOKUP(A212,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>lka</v>
       </c>
     </row>
@@ -3554,7 +3553,7 @@
         <v>350</v>
       </c>
       <c r="B213" t="str">
-        <f ca="1">+VLOOKUP(A213,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xec</v>
       </c>
     </row>
@@ -3563,7 +3562,7 @@
         <v>364</v>
       </c>
       <c r="B214" t="str">
-        <f ca="1">+VLOOKUP(A214,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xsm</v>
       </c>
     </row>
@@ -3572,7 +3571,7 @@
         <v>355</v>
       </c>
       <c r="B215" t="str">
-        <f ca="1">+VLOOKUP(A215,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>nor</v>
       </c>
     </row>
@@ -3581,7 +3580,7 @@
         <v>367</v>
       </c>
       <c r="B216" t="str">
-        <f ca="1">+VLOOKUP(A216,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>swe</v>
       </c>
     </row>
@@ -3590,7 +3589,7 @@
         <v>201</v>
       </c>
       <c r="B217" t="str">
-        <f ca="1">+VLOOKUP(A217,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>che</v>
       </c>
     </row>
@@ -3599,7 +3598,7 @@
         <v>370</v>
       </c>
       <c r="B218" t="str">
-        <f ca="1">+VLOOKUP(A218,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xnf</v>
       </c>
     </row>
@@ -3608,7 +3607,7 @@
         <v>384</v>
       </c>
       <c r="B219" t="str">
-        <f ca="1">+VLOOKUP(A219,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>twn</v>
       </c>
     </row>
@@ -3617,7 +3616,7 @@
         <v>375</v>
       </c>
       <c r="B220" t="str">
-        <f ca="1">+VLOOKUP(A220,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ref="B220:B251" ca="1" si="7">+VLOOKUP(A220,A$2:B$251,2,FALSE)</f>
         <v>xsu</v>
       </c>
     </row>
@@ -3626,7 +3625,7 @@
         <v>385</v>
       </c>
       <c r="B221" t="str">
-        <f ca="1">+VLOOKUP(A221,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>tza</v>
       </c>
     </row>
@@ -3635,7 +3634,7 @@
         <v>374</v>
       </c>
       <c r="B222" t="str">
-        <f ca="1">+VLOOKUP(A222,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>tha</v>
       </c>
     </row>
@@ -3644,7 +3643,7 @@
         <v>378</v>
       </c>
       <c r="B223" t="str">
-        <f ca="1">+VLOOKUP(A223,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>xse</v>
       </c>
     </row>
@@ -3653,7 +3652,7 @@
         <v>373</v>
       </c>
       <c r="B224" t="str">
-        <f ca="1">+VLOOKUP(A224,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>tgo</v>
       </c>
     </row>
@@ -3662,7 +3661,7 @@
         <v>376</v>
       </c>
       <c r="B225" t="str">
-        <f ca="1">+VLOOKUP(A225,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>xoc</v>
       </c>
     </row>
@@ -3671,7 +3670,7 @@
         <v>379</v>
       </c>
       <c r="B226" t="str">
-        <f ca="1">+VLOOKUP(A226,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>xoc</v>
       </c>
     </row>
@@ -3680,7 +3679,7 @@
         <v>380</v>
       </c>
       <c r="B227" t="str">
-        <f ca="1">+VLOOKUP(A227,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>tto</v>
       </c>
     </row>
@@ -3689,7 +3688,7 @@
         <v>381</v>
       </c>
       <c r="B228" t="str">
-        <f ca="1">+VLOOKUP(A228,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>tun</v>
       </c>
     </row>
@@ -3698,7 +3697,7 @@
         <v>382</v>
       </c>
       <c r="B229" t="str">
-        <f ca="1">+VLOOKUP(A229,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>tur</v>
       </c>
     </row>
@@ -3707,7 +3706,7 @@
         <v>377</v>
       </c>
       <c r="B230" t="str">
-        <f ca="1">+VLOOKUP(A230,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>xsu</v>
       </c>
     </row>
@@ -3716,7 +3715,7 @@
         <v>371</v>
       </c>
       <c r="B231" t="str">
-        <f ca="1">+VLOOKUP(A231,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>xcb</v>
       </c>
     </row>
@@ -3725,7 +3724,7 @@
         <v>383</v>
       </c>
       <c r="B232" t="str">
-        <f ca="1">+VLOOKUP(A232,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>xoc</v>
       </c>
     </row>
@@ -3734,7 +3733,7 @@
         <v>386</v>
       </c>
       <c r="B233" t="str">
-        <f ca="1">+VLOOKUP(A233,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>uga</v>
       </c>
     </row>
@@ -3743,7 +3742,7 @@
         <v>387</v>
       </c>
       <c r="B234" t="str">
-        <f ca="1">+VLOOKUP(A234,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>ukr</v>
       </c>
     </row>
@@ -3752,7 +3751,7 @@
         <v>169</v>
       </c>
       <c r="B235" t="str">
-        <f ca="1">+VLOOKUP(A235,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>are</v>
       </c>
     </row>
@@ -3761,7 +3760,7 @@
         <v>238</v>
       </c>
       <c r="B236" t="str">
-        <f ca="1">+VLOOKUP(A236,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>gbr</v>
       </c>
     </row>
@@ -3770,7 +3769,7 @@
         <v>390</v>
       </c>
       <c r="B237" t="str">
-        <f ca="1">+VLOOKUP(A237,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>usa</v>
       </c>
     </row>
@@ -3779,7 +3778,7 @@
         <v>388</v>
       </c>
       <c r="B238" t="str">
-        <f ca="1">+VLOOKUP(A238,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>xoc</v>
       </c>
     </row>
@@ -3788,7 +3787,7 @@
         <v>389</v>
       </c>
       <c r="B239" t="str">
-        <f ca="1">+VLOOKUP(A239,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>ury</v>
       </c>
     </row>
@@ -3797,7 +3796,7 @@
         <v>391</v>
       </c>
       <c r="B240" t="str">
-        <f ca="1">+VLOOKUP(A240,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>xsu</v>
       </c>
     </row>
@@ -3806,7 +3805,7 @@
         <v>398</v>
       </c>
       <c r="B241" t="str">
-        <f ca="1">+VLOOKUP(A241,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>xoc</v>
       </c>
     </row>
@@ -3815,7 +3814,7 @@
         <v>394</v>
       </c>
       <c r="B242" t="str">
-        <f ca="1">+VLOOKUP(A242,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>ven</v>
       </c>
     </row>
@@ -3824,7 +3823,7 @@
         <v>397</v>
       </c>
       <c r="B243" t="str">
-        <f ca="1">+VLOOKUP(A243,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>vnm</v>
       </c>
     </row>
@@ -3833,7 +3832,7 @@
         <v>395</v>
       </c>
       <c r="B244" t="str">
-        <f ca="1">+VLOOKUP(A244,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>xcb</v>
       </c>
     </row>
@@ -3842,7 +3841,7 @@
         <v>396</v>
       </c>
       <c r="B245" t="str">
-        <f ca="1">+VLOOKUP(A245,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>xcb</v>
       </c>
     </row>
@@ -3851,7 +3850,7 @@
         <v>399</v>
       </c>
       <c r="B246" t="str">
-        <f ca="1">+VLOOKUP(A246,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>xoc</v>
       </c>
     </row>
@@ -3860,7 +3859,7 @@
         <v>227</v>
       </c>
       <c r="B247" t="str">
-        <f ca="1">+VLOOKUP(A247,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>xnf</v>
       </c>
     </row>
@@ -3869,7 +3868,7 @@
         <v>401</v>
       </c>
       <c r="B248" t="str">
-        <f ca="1">+VLOOKUP(A248,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>xws</v>
       </c>
     </row>
@@ -3878,7 +3877,7 @@
         <v>403</v>
       </c>
       <c r="B249" t="str">
-        <f ca="1">+VLOOKUP(A249,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>zmb</v>
       </c>
     </row>
@@ -3887,7 +3886,7 @@
         <v>404</v>
       </c>
       <c r="B250" t="str">
-        <f ca="1">+VLOOKUP(A250,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>zwe</v>
       </c>
     </row>
@@ -4621,8 +4620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02ADF971-CAF0-41FB-97EA-B62FD8513AE1}">
   <dimension ref="A1:B250"/>
   <sheetViews>
-    <sheetView topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B250"/>
+    <sheetView topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4644,7 +4643,7 @@
         <v>163</v>
       </c>
       <c r="B2" t="str">
-        <f ca="1">+VLOOKUP(A2,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ref="B2:B28" ca="1" si="0">+VLOOKUP(A2,A$2:B$251,2,FALSE)</f>
         <v>xsa</v>
       </c>
     </row>
@@ -4653,7 +4652,7 @@
         <v>166</v>
       </c>
       <c r="B3" t="str">
-        <f ca="1">+VLOOKUP(A3,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>fin</v>
       </c>
     </row>
@@ -4662,7 +4661,7 @@
         <v>167</v>
       </c>
       <c r="B4" t="str">
-        <f ca="1">+VLOOKUP(A4,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>alb</v>
       </c>
     </row>
@@ -4671,7 +4670,7 @@
         <v>223</v>
       </c>
       <c r="B5" t="str">
-        <f ca="1">+VLOOKUP(A5,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>xnf</v>
       </c>
     </row>
@@ -4680,7 +4679,7 @@
         <v>172</v>
       </c>
       <c r="B6" t="str">
-        <f ca="1">+VLOOKUP(A6,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>xoc</v>
       </c>
     </row>
@@ -4689,7 +4688,7 @@
         <v>168</v>
       </c>
       <c r="B7" t="str">
-        <f ca="1">+VLOOKUP(A7,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>xer</v>
       </c>
     </row>
@@ -4698,7 +4697,7 @@
         <v>164</v>
       </c>
       <c r="B8" t="str">
-        <f ca="1">+VLOOKUP(A8,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>xac</v>
       </c>
     </row>
@@ -4707,7 +4706,7 @@
         <v>165</v>
       </c>
       <c r="B9" t="str">
-        <f ca="1">+VLOOKUP(A9,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>xcb</v>
       </c>
     </row>
@@ -4716,7 +4715,7 @@
         <v>173</v>
       </c>
       <c r="B10" t="str">
-        <f ca="1">+VLOOKUP(A10,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>xtw</v>
       </c>
     </row>
@@ -4725,7 +4724,7 @@
         <v>175</v>
       </c>
       <c r="B11" t="str">
-        <f ca="1">+VLOOKUP(A11,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>xcb</v>
       </c>
     </row>
@@ -4734,7 +4733,7 @@
         <v>170</v>
       </c>
       <c r="B12" t="str">
-        <f ca="1">+VLOOKUP(A12,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>arg</v>
       </c>
     </row>
@@ -4743,7 +4742,7 @@
         <v>171</v>
       </c>
       <c r="B13" t="str">
-        <f ca="1">+VLOOKUP(A13,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>arm</v>
       </c>
     </row>
@@ -4752,7 +4751,7 @@
         <v>162</v>
       </c>
       <c r="B14" t="str">
-        <f ca="1">+VLOOKUP(A14,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>xcb</v>
       </c>
     </row>
@@ -4761,7 +4760,7 @@
         <v>176</v>
       </c>
       <c r="B15" t="str">
-        <f ca="1">+VLOOKUP(A15,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>aus</v>
       </c>
     </row>
@@ -4770,7 +4769,7 @@
         <v>177</v>
       </c>
       <c r="B16" t="str">
-        <f ca="1">+VLOOKUP(A16,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>aut</v>
       </c>
     </row>
@@ -4779,7 +4778,7 @@
         <v>178</v>
       </c>
       <c r="B17" t="str">
-        <f ca="1">+VLOOKUP(A17,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>aze</v>
       </c>
     </row>
@@ -4788,7 +4787,7 @@
         <v>186</v>
       </c>
       <c r="B18" t="str">
-        <f ca="1">+VLOOKUP(A18,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>xcb</v>
       </c>
     </row>
@@ -4797,7 +4796,7 @@
         <v>185</v>
       </c>
       <c r="B19" t="str">
-        <f ca="1">+VLOOKUP(A19,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>bhr</v>
       </c>
     </row>
@@ -4806,7 +4805,7 @@
         <v>183</v>
       </c>
       <c r="B20" t="str">
-        <f ca="1">+VLOOKUP(A20,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>bgd</v>
       </c>
     </row>
@@ -4815,7 +4814,7 @@
         <v>193</v>
       </c>
       <c r="B21" t="str">
-        <f ca="1">+VLOOKUP(A21,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>xcb</v>
       </c>
     </row>
@@ -4824,7 +4823,7 @@
         <v>188</v>
       </c>
       <c r="B22" t="str">
-        <f ca="1">+VLOOKUP(A22,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>blr</v>
       </c>
     </row>
@@ -4833,7 +4832,7 @@
         <v>180</v>
       </c>
       <c r="B23" t="str">
-        <f ca="1">+VLOOKUP(A23,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>bel</v>
       </c>
     </row>
@@ -4842,7 +4841,7 @@
         <v>189</v>
       </c>
       <c r="B24" t="str">
-        <f ca="1">+VLOOKUP(A24,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>xca</v>
       </c>
     </row>
@@ -4851,7 +4850,7 @@
         <v>181</v>
       </c>
       <c r="B25" t="str">
-        <f ca="1">+VLOOKUP(A25,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>ben</v>
       </c>
     </row>
@@ -4860,7 +4859,7 @@
         <v>190</v>
       </c>
       <c r="B26" t="str">
-        <f ca="1">+VLOOKUP(A26,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>xna</v>
       </c>
     </row>
@@ -4869,7 +4868,7 @@
         <v>195</v>
       </c>
       <c r="B27" t="str">
-        <f ca="1">+VLOOKUP(A27,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>xsa</v>
       </c>
     </row>
@@ -4878,7 +4877,7 @@
         <v>191</v>
       </c>
       <c r="B28" t="str">
-        <f ca="1">+VLOOKUP(A28,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>bol</v>
       </c>
     </row>
@@ -4895,7 +4894,7 @@
         <v>187</v>
       </c>
       <c r="B30" t="str">
-        <f ca="1">+VLOOKUP(A30,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ref="B30:B61" ca="1" si="1">+VLOOKUP(A30,A$2:B$251,2,FALSE)</f>
         <v>xer</v>
       </c>
     </row>
@@ -4904,7 +4903,7 @@
         <v>197</v>
       </c>
       <c r="B31" t="str">
-        <f ca="1">+VLOOKUP(A31,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>bwa</v>
       </c>
     </row>
@@ -4913,7 +4912,7 @@
         <v>196</v>
       </c>
       <c r="B32" t="str">
-        <f ca="1">+VLOOKUP(A32,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>xtw</v>
       </c>
     </row>
@@ -4922,7 +4921,7 @@
         <v>192</v>
       </c>
       <c r="B33" t="str">
-        <f ca="1">+VLOOKUP(A33,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>bra</v>
       </c>
     </row>
@@ -4931,7 +4930,7 @@
         <v>264</v>
       </c>
       <c r="B34" t="str">
-        <f ca="1">+VLOOKUP(A34,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>xtw</v>
       </c>
     </row>
@@ -4940,7 +4939,7 @@
         <v>194</v>
       </c>
       <c r="B35" t="str">
-        <f ca="1">+VLOOKUP(A35,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>brn</v>
       </c>
     </row>
@@ -4949,7 +4948,7 @@
         <v>184</v>
       </c>
       <c r="B36" t="str">
-        <f ca="1">+VLOOKUP(A36,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>bgr</v>
       </c>
     </row>
@@ -4958,7 +4957,7 @@
         <v>182</v>
       </c>
       <c r="B37" t="str">
-        <f ca="1">+VLOOKUP(A37,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>bfa</v>
       </c>
     </row>
@@ -4967,7 +4966,7 @@
         <v>179</v>
       </c>
       <c r="B38" t="str">
-        <f ca="1">+VLOOKUP(A38,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>xec</v>
       </c>
     </row>
@@ -4976,7 +4975,7 @@
         <v>211</v>
       </c>
       <c r="B39" t="str">
-        <f ca="1">+VLOOKUP(A39,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>xwf</v>
       </c>
     </row>
@@ -4985,7 +4984,7 @@
         <v>278</v>
       </c>
       <c r="B40" t="str">
-        <f ca="1">+VLOOKUP(A40,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>khm</v>
       </c>
     </row>
@@ -4994,7 +4993,7 @@
         <v>205</v>
       </c>
       <c r="B41" t="str">
-        <f ca="1">+VLOOKUP(A41,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>cmr</v>
       </c>
     </row>
@@ -5003,7 +5002,7 @@
         <v>199</v>
       </c>
       <c r="B42" t="str">
-        <f ca="1">+VLOOKUP(A42,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>can</v>
       </c>
     </row>
@@ -5012,7 +5011,7 @@
         <v>215</v>
       </c>
       <c r="B43" t="str">
-        <f ca="1">+VLOOKUP(A43,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>xcb</v>
       </c>
     </row>
@@ -5021,7 +5020,7 @@
         <v>198</v>
       </c>
       <c r="B44" t="str">
-        <f ca="1">+VLOOKUP(A44,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>xcf</v>
       </c>
     </row>
@@ -5030,7 +5029,7 @@
         <v>372</v>
       </c>
       <c r="B45" t="str">
-        <f ca="1">+VLOOKUP(A45,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>xcf</v>
       </c>
     </row>
@@ -5039,7 +5038,7 @@
         <v>202</v>
       </c>
       <c r="B46" t="str">
-        <f ca="1">+VLOOKUP(A46,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>chl</v>
       </c>
     </row>
@@ -5048,7 +5047,7 @@
         <v>203</v>
       </c>
       <c r="B47" t="str">
-        <f ca="1">+VLOOKUP(A47,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>chn</v>
       </c>
     </row>
@@ -5057,7 +5056,7 @@
         <v>214</v>
       </c>
       <c r="B48" t="str">
-        <f ca="1">+VLOOKUP(A48,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>aus</v>
       </c>
     </row>
@@ -5066,7 +5065,7 @@
         <v>200</v>
       </c>
       <c r="B49" t="str">
-        <f ca="1">+VLOOKUP(A49,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>aus</v>
       </c>
     </row>
@@ -5075,7 +5074,7 @@
         <v>209</v>
       </c>
       <c r="B50" t="str">
-        <f ca="1">+VLOOKUP(A50,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>col</v>
       </c>
     </row>
@@ -5084,7 +5083,7 @@
         <v>210</v>
       </c>
       <c r="B51" t="str">
-        <f ca="1">+VLOOKUP(A51,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>xec</v>
       </c>
     </row>
@@ -5093,7 +5092,7 @@
         <v>207</v>
       </c>
       <c r="B52" t="str">
-        <f ca="1">+VLOOKUP(A52,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>xcf</v>
       </c>
     </row>
@@ -5102,7 +5101,7 @@
         <v>206</v>
       </c>
       <c r="B53" t="str">
-        <f ca="1">+VLOOKUP(A53,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>xcf</v>
       </c>
     </row>
@@ -5111,7 +5110,7 @@
         <v>208</v>
       </c>
       <c r="B54" t="str">
-        <f ca="1">+VLOOKUP(A54,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>xoc</v>
       </c>
     </row>
@@ -5120,7 +5119,7 @@
         <v>212</v>
       </c>
       <c r="B55" t="str">
-        <f ca="1">+VLOOKUP(A55,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>cri</v>
       </c>
     </row>
@@ -5129,7 +5128,7 @@
         <v>204</v>
       </c>
       <c r="B56" t="str">
-        <f ca="1">+VLOOKUP(A56,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>civ</v>
       </c>
     </row>
@@ -5138,7 +5137,7 @@
         <v>258</v>
       </c>
       <c r="B57" t="str">
-        <f ca="1">+VLOOKUP(A57,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>hrv</v>
       </c>
     </row>
@@ -5147,7 +5146,7 @@
         <v>213</v>
       </c>
       <c r="B58" t="str">
-        <f ca="1">+VLOOKUP(A58,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>xcb</v>
       </c>
     </row>
@@ -5156,7 +5155,7 @@
         <v>406</v>
       </c>
       <c r="B59" t="str">
-        <f ca="1">+VLOOKUP(A59,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>xcb</v>
       </c>
     </row>
@@ -5165,7 +5164,7 @@
         <v>216</v>
       </c>
       <c r="B60" t="str">
-        <f ca="1">+VLOOKUP(A60,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>cyp</v>
       </c>
     </row>
@@ -5174,7 +5173,7 @@
         <v>217</v>
       </c>
       <c r="B61" t="str">
-        <f ca="1">+VLOOKUP(A61,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>cze</v>
       </c>
     </row>
@@ -5183,7 +5182,7 @@
         <v>221</v>
       </c>
       <c r="B62" t="str">
-        <f ca="1">+VLOOKUP(A62,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ref="B62:B93" ca="1" si="2">+VLOOKUP(A62,A$2:B$251,2,FALSE)</f>
         <v>dnk</v>
       </c>
     </row>
@@ -5192,7 +5191,7 @@
         <v>219</v>
       </c>
       <c r="B63" t="str">
-        <f ca="1">+VLOOKUP(A63,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xec</v>
       </c>
     </row>
@@ -5201,7 +5200,7 @@
         <v>220</v>
       </c>
       <c r="B64" t="str">
-        <f ca="1">+VLOOKUP(A64,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xcb</v>
       </c>
     </row>
@@ -5210,7 +5209,7 @@
         <v>222</v>
       </c>
       <c r="B65" t="str">
-        <f ca="1">+VLOOKUP(A65,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>dom</v>
       </c>
     </row>
@@ -5219,7 +5218,7 @@
         <v>224</v>
       </c>
       <c r="B66" t="str">
-        <f ca="1">+VLOOKUP(A66,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>ecu</v>
       </c>
     </row>
@@ -5228,7 +5227,7 @@
         <v>225</v>
       </c>
       <c r="B67" t="str">
-        <f ca="1">+VLOOKUP(A67,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>egy</v>
       </c>
     </row>
@@ -5237,7 +5236,7 @@
         <v>358</v>
       </c>
       <c r="B68" t="str">
-        <f ca="1">+VLOOKUP(A68,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>slv</v>
       </c>
     </row>
@@ -5246,7 +5245,7 @@
         <v>247</v>
       </c>
       <c r="B69" t="str">
-        <f ca="1">+VLOOKUP(A69,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xcf</v>
       </c>
     </row>
@@ -5255,7 +5254,7 @@
         <v>226</v>
       </c>
       <c r="B70" t="str">
-        <f ca="1">+VLOOKUP(A70,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xec</v>
       </c>
     </row>
@@ -5264,7 +5263,7 @@
         <v>229</v>
       </c>
       <c r="B71" t="str">
-        <f ca="1">+VLOOKUP(A71,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>est</v>
       </c>
     </row>
@@ -5273,7 +5272,7 @@
         <v>368</v>
       </c>
       <c r="B72" t="str">
-        <f ca="1">+VLOOKUP(A72,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xsc</v>
       </c>
     </row>
@@ -5282,7 +5281,7 @@
         <v>230</v>
       </c>
       <c r="B73" t="str">
-        <f ca="1">+VLOOKUP(A73,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>eth</v>
       </c>
     </row>
@@ -5291,7 +5290,7 @@
         <v>233</v>
       </c>
       <c r="B74" t="str">
-        <f ca="1">+VLOOKUP(A74,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xsm</v>
       </c>
     </row>
@@ -5300,7 +5299,7 @@
         <v>235</v>
       </c>
       <c r="B75" t="str">
-        <f ca="1">+VLOOKUP(A75,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xer</v>
       </c>
     </row>
@@ -5309,7 +5308,7 @@
         <v>232</v>
       </c>
       <c r="B76" t="str">
-        <f ca="1">+VLOOKUP(A76,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xoc</v>
       </c>
     </row>
@@ -5318,7 +5317,7 @@
         <v>231</v>
       </c>
       <c r="B77" t="str">
-        <f ca="1">+VLOOKUP(A77,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fin</v>
       </c>
     </row>
@@ -5327,7 +5326,7 @@
         <v>234</v>
       </c>
       <c r="B78" t="str">
-        <f ca="1">+VLOOKUP(A78,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fra</v>
       </c>
     </row>
@@ -5336,7 +5335,7 @@
         <v>252</v>
       </c>
       <c r="B79" t="str">
-        <f ca="1">+VLOOKUP(A79,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xsm</v>
       </c>
     </row>
@@ -5345,7 +5344,7 @@
         <v>343</v>
       </c>
       <c r="B80" t="str">
-        <f ca="1">+VLOOKUP(A80,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xoc</v>
       </c>
     </row>
@@ -5354,7 +5353,7 @@
         <v>174</v>
       </c>
       <c r="B81" t="str">
-        <f ca="1">+VLOOKUP(A81,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xtw</v>
       </c>
     </row>
@@ -5363,7 +5362,7 @@
         <v>237</v>
       </c>
       <c r="B82" t="str">
-        <f ca="1">+VLOOKUP(A82,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xcf</v>
       </c>
     </row>
@@ -5372,7 +5371,7 @@
         <v>245</v>
       </c>
       <c r="B83" t="str">
-        <f ca="1">+VLOOKUP(A83,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xwf</v>
       </c>
     </row>
@@ -5381,7 +5380,7 @@
         <v>239</v>
       </c>
       <c r="B84" t="str">
-        <f ca="1">+VLOOKUP(A84,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>geo</v>
       </c>
     </row>
@@ -5390,7 +5389,7 @@
         <v>218</v>
       </c>
       <c r="B85" t="str">
-        <f ca="1">+VLOOKUP(A85,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>deu</v>
       </c>
     </row>
@@ -5399,7 +5398,7 @@
         <v>241</v>
       </c>
       <c r="B86" t="str">
-        <f ca="1">+VLOOKUP(A86,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>gha</v>
       </c>
     </row>
@@ -5408,7 +5407,7 @@
         <v>242</v>
       </c>
       <c r="B87" t="str">
-        <f ca="1">+VLOOKUP(A87,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xer</v>
       </c>
     </row>
@@ -5417,7 +5416,7 @@
         <v>248</v>
       </c>
       <c r="B88" t="str">
-        <f ca="1">+VLOOKUP(A88,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>grc</v>
       </c>
     </row>
@@ -5426,7 +5425,7 @@
         <v>250</v>
       </c>
       <c r="B89" t="str">
-        <f ca="1">+VLOOKUP(A89,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xna</v>
       </c>
     </row>
@@ -5435,7 +5434,7 @@
         <v>249</v>
       </c>
       <c r="B90" t="str">
-        <f ca="1">+VLOOKUP(A90,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xcb</v>
       </c>
     </row>
@@ -5444,7 +5443,7 @@
         <v>244</v>
       </c>
       <c r="B91" t="str">
-        <f ca="1">+VLOOKUP(A91,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fra</v>
       </c>
     </row>
@@ -5453,7 +5452,7 @@
         <v>253</v>
       </c>
       <c r="B92" t="str">
-        <f ca="1">+VLOOKUP(A92,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>xoc</v>
       </c>
     </row>
@@ -5462,7 +5461,7 @@
         <v>251</v>
       </c>
       <c r="B93" t="str">
-        <f ca="1">+VLOOKUP(A93,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>gtm</v>
       </c>
     </row>
@@ -5471,7 +5470,7 @@
         <v>240</v>
       </c>
       <c r="B94" t="str">
-        <f ca="1">+VLOOKUP(A94,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ref="B94:B125" ca="1" si="3">+VLOOKUP(A94,A$2:B$251,2,FALSE)</f>
         <v>xer</v>
       </c>
     </row>
@@ -5480,7 +5479,7 @@
         <v>243</v>
       </c>
       <c r="B95" t="str">
-        <f ca="1">+VLOOKUP(A95,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>gin</v>
       </c>
     </row>
@@ -5489,7 +5488,7 @@
         <v>246</v>
       </c>
       <c r="B96" t="str">
-        <f ca="1">+VLOOKUP(A96,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>xwf</v>
       </c>
     </row>
@@ -5498,7 +5497,7 @@
         <v>254</v>
       </c>
       <c r="B97" t="str">
-        <f ca="1">+VLOOKUP(A97,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>xsm</v>
       </c>
     </row>
@@ -5507,7 +5506,7 @@
         <v>259</v>
       </c>
       <c r="B98" t="str">
-        <f ca="1">+VLOOKUP(A98,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>xsm</v>
       </c>
     </row>
@@ -5516,7 +5515,7 @@
         <v>256</v>
       </c>
       <c r="B99" t="str">
-        <f ca="1">+VLOOKUP(A99,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>aus</v>
       </c>
     </row>
@@ -5525,7 +5524,7 @@
         <v>392</v>
       </c>
       <c r="B100" t="str">
-        <f ca="1">+VLOOKUP(A100,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>xer</v>
       </c>
     </row>
@@ -5534,7 +5533,7 @@
         <v>257</v>
       </c>
       <c r="B101" t="str">
-        <f ca="1">+VLOOKUP(A101,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>hnd</v>
       </c>
     </row>
@@ -5543,7 +5542,7 @@
         <v>255</v>
       </c>
       <c r="B102" t="str">
-        <f ca="1">+VLOOKUP(A102,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>hkg</v>
       </c>
     </row>
@@ -5552,7 +5551,7 @@
         <v>260</v>
       </c>
       <c r="B103" t="str">
-        <f ca="1">+VLOOKUP(A103,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>hun</v>
       </c>
     </row>
@@ -5561,7 +5560,7 @@
         <v>268</v>
       </c>
       <c r="B104" t="str">
-        <f ca="1">+VLOOKUP(A104,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>xef</v>
       </c>
     </row>
@@ -5570,7 +5569,7 @@
         <v>263</v>
       </c>
       <c r="B105" t="str">
-        <f ca="1">+VLOOKUP(A105,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>ind</v>
       </c>
     </row>
@@ -5579,7 +5578,7 @@
         <v>261</v>
       </c>
       <c r="B106" t="str">
-        <f ca="1">+VLOOKUP(A106,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>idn</v>
       </c>
     </row>
@@ -5588,7 +5587,7 @@
         <v>266</v>
       </c>
       <c r="B107" t="str">
-        <f ca="1">+VLOOKUP(A107,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>irn</v>
       </c>
     </row>
@@ -5597,7 +5596,7 @@
         <v>267</v>
       </c>
       <c r="B108" t="str">
-        <f ca="1">+VLOOKUP(A108,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>xws</v>
       </c>
     </row>
@@ -5606,7 +5605,7 @@
         <v>265</v>
       </c>
       <c r="B109" t="str">
-        <f ca="1">+VLOOKUP(A109,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>irl</v>
       </c>
     </row>
@@ -5615,7 +5614,7 @@
         <v>262</v>
       </c>
       <c r="B110" t="str">
-        <f ca="1">+VLOOKUP(A110,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>xer</v>
       </c>
     </row>
@@ -5624,7 +5623,7 @@
         <v>269</v>
       </c>
       <c r="B111" t="str">
-        <f ca="1">+VLOOKUP(A111,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>isr</v>
       </c>
     </row>
@@ -5633,7 +5632,7 @@
         <v>270</v>
       </c>
       <c r="B112" t="str">
-        <f ca="1">+VLOOKUP(A112,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>ita</v>
       </c>
     </row>
@@ -5642,7 +5641,7 @@
         <v>271</v>
       </c>
       <c r="B113" t="str">
-        <f ca="1">+VLOOKUP(A113,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>jam</v>
       </c>
     </row>
@@ -5651,7 +5650,7 @@
         <v>274</v>
       </c>
       <c r="B114" t="str">
-        <f ca="1">+VLOOKUP(A114,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>jpn</v>
       </c>
     </row>
@@ -5660,7 +5659,7 @@
         <v>272</v>
       </c>
       <c r="B115" t="str">
-        <f ca="1">+VLOOKUP(A115,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>xer</v>
       </c>
     </row>
@@ -5669,7 +5668,7 @@
         <v>273</v>
       </c>
       <c r="B116" t="str">
-        <f ca="1">+VLOOKUP(A116,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>jor</v>
       </c>
     </row>
@@ -5678,7 +5677,7 @@
         <v>275</v>
       </c>
       <c r="B117" t="str">
-        <f ca="1">+VLOOKUP(A117,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>kaz</v>
       </c>
     </row>
@@ -5687,7 +5686,7 @@
         <v>276</v>
       </c>
       <c r="B118" t="str">
-        <f ca="1">+VLOOKUP(A118,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>ken</v>
       </c>
     </row>
@@ -5696,7 +5695,7 @@
         <v>279</v>
       </c>
       <c r="B119" t="str">
-        <f ca="1">+VLOOKUP(A119,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>xoc</v>
       </c>
     </row>
@@ -5705,7 +5704,7 @@
         <v>339</v>
       </c>
       <c r="B120" t="str">
-        <f ca="1">+VLOOKUP(A120,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>xea</v>
       </c>
     </row>
@@ -5714,7 +5713,7 @@
         <v>281</v>
       </c>
       <c r="B121" t="str">
-        <f ca="1">+VLOOKUP(A121,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>kor</v>
       </c>
     </row>
@@ -5723,7 +5722,7 @@
         <v>282</v>
       </c>
       <c r="B122" t="str">
-        <f ca="1">+VLOOKUP(A122,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>kwt</v>
       </c>
     </row>
@@ -5732,7 +5731,7 @@
         <v>277</v>
       </c>
       <c r="B123" t="str">
-        <f ca="1">+VLOOKUP(A123,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>kgz</v>
       </c>
     </row>
@@ -5741,7 +5740,7 @@
         <v>283</v>
       </c>
       <c r="B124" t="str">
-        <f ca="1">+VLOOKUP(A124,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>lao</v>
       </c>
     </row>
@@ -5750,7 +5749,7 @@
         <v>293</v>
       </c>
       <c r="B125" t="str">
-        <f ca="1">+VLOOKUP(A125,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>lva</v>
       </c>
     </row>
@@ -5759,7 +5758,7 @@
         <v>284</v>
       </c>
       <c r="B126" t="str">
-        <f ca="1">+VLOOKUP(A126,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ref="B126:B157" ca="1" si="4">+VLOOKUP(A126,A$2:B$251,2,FALSE)</f>
         <v>xws</v>
       </c>
     </row>
@@ -5768,7 +5767,7 @@
         <v>290</v>
       </c>
       <c r="B127" t="str">
-        <f ca="1">+VLOOKUP(A127,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xsc</v>
       </c>
     </row>
@@ -5777,7 +5776,7 @@
         <v>285</v>
       </c>
       <c r="B128" t="str">
-        <f ca="1">+VLOOKUP(A128,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xwf</v>
       </c>
     </row>
@@ -5786,7 +5785,7 @@
         <v>286</v>
       </c>
       <c r="B129" t="str">
-        <f ca="1">+VLOOKUP(A129,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xnf</v>
       </c>
     </row>
@@ -5795,7 +5794,7 @@
         <v>288</v>
       </c>
       <c r="B130" t="str">
-        <f ca="1">+VLOOKUP(A130,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xef</v>
       </c>
     </row>
@@ -5804,7 +5803,7 @@
         <v>291</v>
       </c>
       <c r="B131" t="str">
-        <f ca="1">+VLOOKUP(A131,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>ltu</v>
       </c>
     </row>
@@ -5813,7 +5812,7 @@
         <v>292</v>
       </c>
       <c r="B132" t="str">
-        <f ca="1">+VLOOKUP(A132,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>lux</v>
       </c>
     </row>
@@ -5822,7 +5821,7 @@
         <v>294</v>
       </c>
       <c r="B133" t="str">
-        <f ca="1">+VLOOKUP(A133,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xea</v>
       </c>
     </row>
@@ -5831,7 +5830,7 @@
         <v>298</v>
       </c>
       <c r="B134" t="str">
-        <f ca="1">+VLOOKUP(A134,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>mdg</v>
       </c>
     </row>
@@ -5840,7 +5839,7 @@
         <v>314</v>
       </c>
       <c r="B135" t="str">
-        <f ca="1">+VLOOKUP(A135,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>mwi</v>
       </c>
     </row>
@@ -5849,7 +5848,7 @@
         <v>315</v>
       </c>
       <c r="B136" t="str">
-        <f ca="1">+VLOOKUP(A136,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>mys</v>
       </c>
     </row>
@@ -5858,7 +5857,7 @@
         <v>299</v>
       </c>
       <c r="B137" t="str">
-        <f ca="1">+VLOOKUP(A137,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xsa</v>
       </c>
     </row>
@@ -5867,7 +5866,7 @@
         <v>303</v>
       </c>
       <c r="B138" t="str">
-        <f ca="1">+VLOOKUP(A138,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xwf</v>
       </c>
     </row>
@@ -5876,7 +5875,7 @@
         <v>304</v>
       </c>
       <c r="B139" t="str">
-        <f ca="1">+VLOOKUP(A139,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>mlt</v>
       </c>
     </row>
@@ -5885,7 +5884,7 @@
         <v>301</v>
       </c>
       <c r="B140" t="str">
-        <f ca="1">+VLOOKUP(A140,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xoc</v>
       </c>
     </row>
@@ -5894,7 +5893,7 @@
         <v>312</v>
       </c>
       <c r="B141" t="str">
-        <f ca="1">+VLOOKUP(A141,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>fra</v>
       </c>
     </row>
@@ -5903,7 +5902,7 @@
         <v>310</v>
       </c>
       <c r="B142" t="str">
-        <f ca="1">+VLOOKUP(A142,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xwf</v>
       </c>
     </row>
@@ -5912,7 +5911,7 @@
         <v>313</v>
       </c>
       <c r="B143" t="str">
-        <f ca="1">+VLOOKUP(A143,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>mus</v>
       </c>
     </row>
@@ -5921,7 +5920,7 @@
         <v>316</v>
       </c>
       <c r="B144" t="str">
-        <f ca="1">+VLOOKUP(A144,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xec</v>
       </c>
     </row>
@@ -5930,7 +5929,7 @@
         <v>300</v>
       </c>
       <c r="B145" t="str">
-        <f ca="1">+VLOOKUP(A145,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>mex</v>
       </c>
     </row>
@@ -5939,7 +5938,7 @@
         <v>236</v>
       </c>
       <c r="B146" t="str">
-        <f ca="1">+VLOOKUP(A146,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xoc</v>
       </c>
     </row>
@@ -5948,7 +5947,7 @@
         <v>297</v>
       </c>
       <c r="B147" t="str">
-        <f ca="1">+VLOOKUP(A147,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xee</v>
       </c>
     </row>
@@ -5957,7 +5956,7 @@
         <v>296</v>
       </c>
       <c r="B148" t="str">
-        <f ca="1">+VLOOKUP(A148,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xer</v>
       </c>
     </row>
@@ -5966,7 +5965,7 @@
         <v>307</v>
       </c>
       <c r="B149" t="str">
-        <f ca="1">+VLOOKUP(A149,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>mng</v>
       </c>
     </row>
@@ -5975,7 +5974,7 @@
         <v>306</v>
       </c>
       <c r="B150" t="str">
-        <f ca="1">+VLOOKUP(A150,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xer</v>
       </c>
     </row>
@@ -5984,7 +5983,7 @@
         <v>311</v>
       </c>
       <c r="B151" t="str">
-        <f ca="1">+VLOOKUP(A151,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xcb</v>
       </c>
     </row>
@@ -5993,7 +5992,7 @@
         <v>295</v>
       </c>
       <c r="B152" t="str">
-        <f ca="1">+VLOOKUP(A152,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>mar</v>
       </c>
     </row>
@@ -6002,7 +6001,7 @@
         <v>309</v>
       </c>
       <c r="B153" t="str">
-        <f ca="1">+VLOOKUP(A153,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>moz</v>
       </c>
     </row>
@@ -6011,7 +6010,7 @@
         <v>305</v>
       </c>
       <c r="B154" t="str">
-        <f ca="1">+VLOOKUP(A154,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xse</v>
       </c>
     </row>
@@ -6020,7 +6019,7 @@
         <v>317</v>
       </c>
       <c r="B155" t="str">
-        <f ca="1">+VLOOKUP(A155,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>nam</v>
       </c>
     </row>
@@ -6029,7 +6028,7 @@
         <v>327</v>
       </c>
       <c r="B156" t="str">
-        <f ca="1">+VLOOKUP(A156,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>xoc</v>
       </c>
     </row>
@@ -6038,7 +6037,7 @@
         <v>326</v>
       </c>
       <c r="B157" t="str">
-        <f ca="1">+VLOOKUP(A157,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>npl</v>
       </c>
     </row>
@@ -6047,7 +6046,7 @@
         <v>324</v>
       </c>
       <c r="B158" t="str">
-        <f ca="1">+VLOOKUP(A158,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ref="B158:B189" ca="1" si="5">+VLOOKUP(A158,A$2:B$251,2,FALSE)</f>
         <v>nld</v>
       </c>
     </row>
@@ -6056,7 +6055,7 @@
         <v>318</v>
       </c>
       <c r="B159" t="str">
-        <f ca="1">+VLOOKUP(A159,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>xoc</v>
       </c>
     </row>
@@ -6065,7 +6064,7 @@
         <v>328</v>
       </c>
       <c r="B160" t="str">
-        <f ca="1">+VLOOKUP(A160,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>nzl</v>
       </c>
     </row>
@@ -6074,7 +6073,7 @@
         <v>322</v>
       </c>
       <c r="B161" t="str">
-        <f ca="1">+VLOOKUP(A161,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>nic</v>
       </c>
     </row>
@@ -6083,7 +6082,7 @@
         <v>319</v>
       </c>
       <c r="B162" t="str">
-        <f ca="1">+VLOOKUP(A162,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>xwf</v>
       </c>
     </row>
@@ -6092,7 +6091,7 @@
         <v>321</v>
       </c>
       <c r="B163" t="str">
-        <f ca="1">+VLOOKUP(A163,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>nga</v>
       </c>
     </row>
@@ -6101,7 +6100,7 @@
         <v>323</v>
       </c>
       <c r="B164" t="str">
-        <f ca="1">+VLOOKUP(A164,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>xoc</v>
       </c>
     </row>
@@ -6110,7 +6109,7 @@
         <v>320</v>
       </c>
       <c r="B165" t="str">
-        <f ca="1">+VLOOKUP(A165,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>aus</v>
       </c>
     </row>
@@ -6119,7 +6118,7 @@
         <v>302</v>
       </c>
       <c r="B166" t="str">
-        <f ca="1">+VLOOKUP(A166,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>xer</v>
       </c>
     </row>
@@ -6128,7 +6127,7 @@
         <v>308</v>
       </c>
       <c r="B167" t="str">
-        <f ca="1">+VLOOKUP(A167,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>xoc</v>
       </c>
     </row>
@@ -6137,7 +6136,7 @@
         <v>325</v>
       </c>
       <c r="B168" t="str">
-        <f ca="1">+VLOOKUP(A168,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>nor</v>
       </c>
     </row>
@@ -6146,7 +6145,7 @@
         <v>329</v>
       </c>
       <c r="B169" t="str">
-        <f ca="1">+VLOOKUP(A169,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>omn</v>
       </c>
     </row>
@@ -6155,7 +6154,7 @@
         <v>330</v>
       </c>
       <c r="B170" t="str">
-        <f ca="1">+VLOOKUP(A170,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>pak</v>
       </c>
     </row>
@@ -6164,7 +6163,7 @@
         <v>335</v>
       </c>
       <c r="B171" t="str">
-        <f ca="1">+VLOOKUP(A171,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>xoc</v>
       </c>
     </row>
@@ -6173,7 +6172,7 @@
         <v>342</v>
       </c>
       <c r="B172" t="str">
-        <f ca="1">+VLOOKUP(A172,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>xnf</v>
       </c>
     </row>
@@ -6182,7 +6181,7 @@
         <v>331</v>
       </c>
       <c r="B173" t="str">
-        <f ca="1">+VLOOKUP(A173,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>pan</v>
       </c>
     </row>
@@ -6191,7 +6190,7 @@
         <v>336</v>
       </c>
       <c r="B174" t="str">
-        <f ca="1">+VLOOKUP(A174,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>xoc</v>
       </c>
     </row>
@@ -6200,7 +6199,7 @@
         <v>341</v>
       </c>
       <c r="B175" t="str">
-        <f ca="1">+VLOOKUP(A175,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>pry</v>
       </c>
     </row>
@@ -6209,7 +6208,7 @@
         <v>333</v>
       </c>
       <c r="B176" t="str">
-        <f ca="1">+VLOOKUP(A176,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>per</v>
       </c>
     </row>
@@ -6218,7 +6217,7 @@
         <v>334</v>
       </c>
       <c r="B177" t="str">
-        <f ca="1">+VLOOKUP(A177,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>phl</v>
       </c>
     </row>
@@ -6227,7 +6226,7 @@
         <v>332</v>
       </c>
       <c r="B178" t="str">
-        <f ca="1">+VLOOKUP(A178,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>xoc</v>
       </c>
     </row>
@@ -6236,7 +6235,7 @@
         <v>337</v>
       </c>
       <c r="B179" t="str">
-        <f ca="1">+VLOOKUP(A179,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>pol</v>
       </c>
     </row>
@@ -6245,7 +6244,7 @@
         <v>340</v>
       </c>
       <c r="B180" t="str">
-        <f ca="1">+VLOOKUP(A180,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>prt</v>
       </c>
     </row>
@@ -6254,7 +6253,7 @@
         <v>338</v>
       </c>
       <c r="B181" t="str">
-        <f ca="1">+VLOOKUP(A181,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>pri</v>
       </c>
     </row>
@@ -6263,7 +6262,7 @@
         <v>344</v>
       </c>
       <c r="B182" t="str">
-        <f ca="1">+VLOOKUP(A182,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>qat</v>
       </c>
     </row>
@@ -6272,7 +6271,7 @@
         <v>345</v>
       </c>
       <c r="B183" t="str">
-        <f ca="1">+VLOOKUP(A183,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>fra</v>
       </c>
     </row>
@@ -6281,7 +6280,7 @@
         <v>346</v>
       </c>
       <c r="B184" t="str">
-        <f ca="1">+VLOOKUP(A184,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>rou</v>
       </c>
     </row>
@@ -6290,7 +6289,7 @@
         <v>347</v>
       </c>
       <c r="B185" t="str">
-        <f ca="1">+VLOOKUP(A185,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>rus</v>
       </c>
     </row>
@@ -6299,7 +6298,7 @@
         <v>348</v>
       </c>
       <c r="B186" t="str">
-        <f ca="1">+VLOOKUP(A186,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>rwa</v>
       </c>
     </row>
@@ -6316,7 +6315,7 @@
         <v>354</v>
       </c>
       <c r="B188" t="str">
-        <f ca="1">+VLOOKUP(A188,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ref="B188:B219" ca="1" si="6">+VLOOKUP(A188,A$2:B$251,2,FALSE)</f>
         <v>xwf</v>
       </c>
     </row>
@@ -6325,7 +6324,7 @@
         <v>280</v>
       </c>
       <c r="B189" t="str">
-        <f ca="1">+VLOOKUP(A189,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xcb</v>
       </c>
     </row>
@@ -6334,7 +6333,7 @@
         <v>287</v>
       </c>
       <c r="B190" t="str">
-        <f ca="1">+VLOOKUP(A190,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xcb</v>
       </c>
     </row>
@@ -6343,7 +6342,7 @@
         <v>407</v>
       </c>
       <c r="B191" t="str">
-        <f ca="1">+VLOOKUP(A191,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xcb</v>
       </c>
     </row>
@@ -6352,7 +6351,7 @@
         <v>361</v>
       </c>
       <c r="B192" t="str">
-        <f ca="1">+VLOOKUP(A192,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xna</v>
       </c>
     </row>
@@ -6361,7 +6360,7 @@
         <v>393</v>
       </c>
       <c r="B193" t="str">
-        <f ca="1">+VLOOKUP(A193,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xcb</v>
       </c>
     </row>
@@ -6370,7 +6369,7 @@
         <v>400</v>
       </c>
       <c r="B194" t="str">
-        <f ca="1">+VLOOKUP(A194,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xoc</v>
       </c>
     </row>
@@ -6379,7 +6378,7 @@
         <v>359</v>
       </c>
       <c r="B195" t="str">
-        <f ca="1">+VLOOKUP(A195,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xer</v>
       </c>
     </row>
@@ -6388,7 +6387,7 @@
         <v>363</v>
       </c>
       <c r="B196" t="str">
-        <f ca="1">+VLOOKUP(A196,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xac</v>
       </c>
     </row>
@@ -6397,7 +6396,7 @@
         <v>349</v>
       </c>
       <c r="B197" t="str">
-        <f ca="1">+VLOOKUP(A197,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>sau</v>
       </c>
     </row>
@@ -6406,7 +6405,7 @@
         <v>351</v>
       </c>
       <c r="B198" t="str">
-        <f ca="1">+VLOOKUP(A198,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>sen</v>
       </c>
     </row>
@@ -6415,7 +6414,7 @@
         <v>362</v>
       </c>
       <c r="B199" t="str">
-        <f ca="1">+VLOOKUP(A199,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xer</v>
       </c>
     </row>
@@ -6424,7 +6423,7 @@
         <v>369</v>
       </c>
       <c r="B200" t="str">
-        <f ca="1">+VLOOKUP(A200,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xec</v>
       </c>
     </row>
@@ -6433,7 +6432,7 @@
         <v>357</v>
       </c>
       <c r="B201" t="str">
-        <f ca="1">+VLOOKUP(A201,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xwf</v>
       </c>
     </row>
@@ -6442,7 +6441,7 @@
         <v>352</v>
       </c>
       <c r="B202" t="str">
-        <f ca="1">+VLOOKUP(A202,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>sgp</v>
       </c>
     </row>
@@ -6451,7 +6450,7 @@
         <v>408</v>
       </c>
       <c r="B203" t="str">
-        <f ca="1">+VLOOKUP(A203,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xcb</v>
       </c>
     </row>
@@ -6460,7 +6459,7 @@
         <v>365</v>
       </c>
       <c r="B204" t="str">
-        <f ca="1">+VLOOKUP(A204,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>svk</v>
       </c>
     </row>
@@ -6469,7 +6468,7 @@
         <v>366</v>
       </c>
       <c r="B205" t="str">
-        <f ca="1">+VLOOKUP(A205,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>svn</v>
       </c>
     </row>
@@ -6478,7 +6477,7 @@
         <v>356</v>
       </c>
       <c r="B206" t="str">
-        <f ca="1">+VLOOKUP(A206,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xoc</v>
       </c>
     </row>
@@ -6487,7 +6486,7 @@
         <v>360</v>
       </c>
       <c r="B207" t="str">
-        <f ca="1">+VLOOKUP(A207,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xec</v>
       </c>
     </row>
@@ -6496,7 +6495,7 @@
         <v>402</v>
       </c>
       <c r="B208" t="str">
-        <f ca="1">+VLOOKUP(A208,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>zaf</v>
       </c>
     </row>
@@ -6505,7 +6504,7 @@
         <v>353</v>
       </c>
       <c r="B209" t="str">
-        <f ca="1">+VLOOKUP(A209,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xsm</v>
       </c>
     </row>
@@ -6514,7 +6513,7 @@
         <v>405</v>
       </c>
       <c r="B210" t="str">
-        <f ca="1">+VLOOKUP(A210,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xec</v>
       </c>
     </row>
@@ -6523,7 +6522,7 @@
         <v>228</v>
       </c>
       <c r="B211" t="str">
-        <f ca="1">+VLOOKUP(A211,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>esp</v>
       </c>
     </row>
@@ -6532,7 +6531,7 @@
         <v>289</v>
       </c>
       <c r="B212" t="str">
-        <f ca="1">+VLOOKUP(A212,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>lka</v>
       </c>
     </row>
@@ -6541,7 +6540,7 @@
         <v>350</v>
       </c>
       <c r="B213" t="str">
-        <f ca="1">+VLOOKUP(A213,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xec</v>
       </c>
     </row>
@@ -6550,7 +6549,7 @@
         <v>364</v>
       </c>
       <c r="B214" t="str">
-        <f ca="1">+VLOOKUP(A214,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xsm</v>
       </c>
     </row>
@@ -6559,7 +6558,7 @@
         <v>355</v>
       </c>
       <c r="B215" t="str">
-        <f ca="1">+VLOOKUP(A215,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>nor</v>
       </c>
     </row>
@@ -6568,7 +6567,7 @@
         <v>367</v>
       </c>
       <c r="B216" t="str">
-        <f ca="1">+VLOOKUP(A216,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>swe</v>
       </c>
     </row>
@@ -6577,7 +6576,7 @@
         <v>201</v>
       </c>
       <c r="B217" t="str">
-        <f ca="1">+VLOOKUP(A217,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>che</v>
       </c>
     </row>
@@ -6586,7 +6585,7 @@
         <v>370</v>
       </c>
       <c r="B218" t="str">
-        <f ca="1">+VLOOKUP(A218,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>xnf</v>
       </c>
     </row>
@@ -6595,7 +6594,7 @@
         <v>384</v>
       </c>
       <c r="B219" t="str">
-        <f ca="1">+VLOOKUP(A219,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>twn</v>
       </c>
     </row>
@@ -6612,7 +6611,7 @@
         <v>385</v>
       </c>
       <c r="B221" t="str">
-        <f ca="1">+VLOOKUP(A221,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ref="B221:B250" ca="1" si="7">+VLOOKUP(A221,A$2:B$251,2,FALSE)</f>
         <v>tza</v>
       </c>
     </row>
@@ -6621,7 +6620,7 @@
         <v>374</v>
       </c>
       <c r="B222" t="str">
-        <f ca="1">+VLOOKUP(A222,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>tha</v>
       </c>
     </row>
@@ -6630,7 +6629,7 @@
         <v>378</v>
       </c>
       <c r="B223" t="str">
-        <f ca="1">+VLOOKUP(A223,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>xse</v>
       </c>
     </row>
@@ -6639,7 +6638,7 @@
         <v>373</v>
       </c>
       <c r="B224" t="str">
-        <f ca="1">+VLOOKUP(A224,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>tgo</v>
       </c>
     </row>
@@ -6648,7 +6647,7 @@
         <v>376</v>
       </c>
       <c r="B225" t="str">
-        <f ca="1">+VLOOKUP(A225,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>xoc</v>
       </c>
     </row>
@@ -6657,7 +6656,7 @@
         <v>379</v>
       </c>
       <c r="B226" t="str">
-        <f ca="1">+VLOOKUP(A226,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>xoc</v>
       </c>
     </row>
@@ -6666,7 +6665,7 @@
         <v>380</v>
       </c>
       <c r="B227" t="str">
-        <f ca="1">+VLOOKUP(A227,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>tto</v>
       </c>
     </row>
@@ -6675,7 +6674,7 @@
         <v>381</v>
       </c>
       <c r="B228" t="str">
-        <f ca="1">+VLOOKUP(A228,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>tun</v>
       </c>
     </row>
@@ -6684,7 +6683,7 @@
         <v>382</v>
       </c>
       <c r="B229" t="str">
-        <f ca="1">+VLOOKUP(A229,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>tur</v>
       </c>
     </row>
@@ -6693,7 +6692,7 @@
         <v>377</v>
       </c>
       <c r="B230" t="str">
-        <f ca="1">+VLOOKUP(A230,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>xsu</v>
       </c>
     </row>
@@ -6702,7 +6701,7 @@
         <v>371</v>
       </c>
       <c r="B231" t="str">
-        <f ca="1">+VLOOKUP(A231,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>xcb</v>
       </c>
     </row>
@@ -6711,7 +6710,7 @@
         <v>383</v>
       </c>
       <c r="B232" t="str">
-        <f ca="1">+VLOOKUP(A232,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>xoc</v>
       </c>
     </row>
@@ -6720,7 +6719,7 @@
         <v>386</v>
       </c>
       <c r="B233" t="str">
-        <f ca="1">+VLOOKUP(A233,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>uga</v>
       </c>
     </row>
@@ -6729,7 +6728,7 @@
         <v>387</v>
       </c>
       <c r="B234" t="str">
-        <f ca="1">+VLOOKUP(A234,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>ukr</v>
       </c>
     </row>
@@ -6738,7 +6737,7 @@
         <v>169</v>
       </c>
       <c r="B235" t="str">
-        <f ca="1">+VLOOKUP(A235,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>are</v>
       </c>
     </row>
@@ -6747,7 +6746,7 @@
         <v>238</v>
       </c>
       <c r="B236" t="str">
-        <f ca="1">+VLOOKUP(A236,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>gbr</v>
       </c>
     </row>
@@ -6756,7 +6755,7 @@
         <v>390</v>
       </c>
       <c r="B237" t="str">
-        <f ca="1">+VLOOKUP(A237,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>usa</v>
       </c>
     </row>
@@ -6765,7 +6764,7 @@
         <v>388</v>
       </c>
       <c r="B238" t="str">
-        <f ca="1">+VLOOKUP(A238,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>xoc</v>
       </c>
     </row>
@@ -6774,7 +6773,7 @@
         <v>389</v>
       </c>
       <c r="B239" t="str">
-        <f ca="1">+VLOOKUP(A239,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>ury</v>
       </c>
     </row>
@@ -6783,7 +6782,7 @@
         <v>391</v>
       </c>
       <c r="B240" t="str">
-        <f ca="1">+VLOOKUP(A240,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>xsu</v>
       </c>
     </row>
@@ -6792,7 +6791,7 @@
         <v>398</v>
       </c>
       <c r="B241" t="str">
-        <f ca="1">+VLOOKUP(A241,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>xoc</v>
       </c>
     </row>
@@ -6801,7 +6800,7 @@
         <v>394</v>
       </c>
       <c r="B242" t="str">
-        <f ca="1">+VLOOKUP(A242,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>ven</v>
       </c>
     </row>
@@ -6810,7 +6809,7 @@
         <v>397</v>
       </c>
       <c r="B243" t="str">
-        <f ca="1">+VLOOKUP(A243,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>vnm</v>
       </c>
     </row>
@@ -6819,7 +6818,7 @@
         <v>395</v>
       </c>
       <c r="B244" t="str">
-        <f ca="1">+VLOOKUP(A244,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>xcb</v>
       </c>
     </row>
@@ -6828,7 +6827,7 @@
         <v>396</v>
       </c>
       <c r="B245" t="str">
-        <f ca="1">+VLOOKUP(A245,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>xcb</v>
       </c>
     </row>
@@ -6837,7 +6836,7 @@
         <v>399</v>
       </c>
       <c r="B246" t="str">
-        <f ca="1">+VLOOKUP(A246,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>xoc</v>
       </c>
     </row>
@@ -6846,7 +6845,7 @@
         <v>227</v>
       </c>
       <c r="B247" t="str">
-        <f ca="1">+VLOOKUP(A247,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>xnf</v>
       </c>
     </row>
@@ -6855,7 +6854,7 @@
         <v>401</v>
       </c>
       <c r="B248" t="str">
-        <f ca="1">+VLOOKUP(A248,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>xws</v>
       </c>
     </row>
@@ -6864,7 +6863,7 @@
         <v>403</v>
       </c>
       <c r="B249" t="str">
-        <f ca="1">+VLOOKUP(A249,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>zmb</v>
       </c>
     </row>
@@ -6873,7 +6872,7 @@
         <v>404</v>
       </c>
       <c r="B250" t="str">
-        <f ca="1">+VLOOKUP(A250,A$2:B$251,2,FALSE)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>zwe</v>
       </c>
     </row>
@@ -7610,2025 +7609,2015 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B5AD30-7F1F-4EE0-9927-E5D6D594EF64}">
-  <dimension ref="A1:I251"/>
+  <dimension ref="A1:B250"/>
   <sheetViews>
-    <sheetView topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B251"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="28.5546875" style="1" customWidth="1"/>
-    <col min="7" max="9" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>173</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>175</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>170</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>162</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>176</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>186</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>185</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>183</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>193</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>188</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>180</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>189</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>181</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>190</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>195</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>191</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>414</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>187</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>197</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>196</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>192</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>264</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>194</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>184</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>182</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>179</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>211</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>278</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>205</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>199</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>215</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>198</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>372</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>202</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>203</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>214</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>200</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>209</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>210</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>207</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>206</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>208</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>212</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>204</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>258</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>213</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>406</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>216</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>217</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>221</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>219</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>220</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>222</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>224</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>225</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>358</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>247</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>226</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>229</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>368</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>230</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>233</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>235</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="A76" t="s">
         <v>232</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="A77" t="s">
         <v>231</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="A78" t="s">
         <v>234</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="A79" t="s">
         <v>252</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="A80" t="s">
         <v>343</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="A81" t="s">
         <v>174</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="A82" t="s">
         <v>237</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+      <c r="A83" t="s">
         <v>245</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+      <c r="A84" t="s">
         <v>239</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="A85" t="s">
         <v>218</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+      <c r="A86" t="s">
         <v>241</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="A87" t="s">
         <v>242</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+      <c r="A88" t="s">
         <v>248</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+      <c r="A89" t="s">
         <v>250</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="A90" t="s">
         <v>249</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+      <c r="A91" t="s">
         <v>244</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+      <c r="A92" t="s">
         <v>253</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="A93" t="s">
         <v>251</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+      <c r="A94" t="s">
         <v>240</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+      <c r="A95" t="s">
         <v>243</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+      <c r="A96" t="s">
         <v>246</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+      <c r="A97" t="s">
         <v>254</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
+      <c r="A98" t="s">
         <v>259</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+      <c r="A99" t="s">
         <v>256</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+      <c r="A100" t="s">
         <v>392</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+      <c r="A101" t="s">
         <v>257</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+      <c r="A102" t="s">
         <v>255</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+      <c r="A103" t="s">
         <v>260</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+      <c r="A104" t="s">
         <v>268</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+      <c r="A105" t="s">
         <v>263</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
+      <c r="A106" t="s">
         <v>261</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+      <c r="A107" t="s">
         <v>266</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
+      <c r="A108" t="s">
         <v>267</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
+      <c r="A109" t="s">
         <v>265</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
+      <c r="A110" t="s">
         <v>262</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
+      <c r="A111" t="s">
         <v>269</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+      <c r="A112" t="s">
         <v>270</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+      <c r="A113" t="s">
         <v>271</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
+      <c r="A114" t="s">
         <v>274</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
+      <c r="A115" t="s">
         <v>272</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
+      <c r="A116" t="s">
         <v>273</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
+      <c r="A117" t="s">
         <v>275</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+      <c r="A118" t="s">
         <v>276</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+      <c r="A119" t="s">
         <v>279</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
+      <c r="A120" t="s">
         <v>339</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
+      <c r="A121" t="s">
         <v>281</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
+      <c r="A122" t="s">
         <v>282</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
+      <c r="A123" t="s">
         <v>277</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
+      <c r="A124" t="s">
         <v>283</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
+      <c r="A125" t="s">
         <v>293</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
+      <c r="A126" t="s">
         <v>284</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
+      <c r="A127" t="s">
         <v>290</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
+      <c r="A128" t="s">
         <v>285</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
+      <c r="A129" t="s">
         <v>286</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
+      <c r="A130" t="s">
         <v>288</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
+      <c r="A131" t="s">
         <v>291</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
+      <c r="A132" t="s">
         <v>292</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
+      <c r="A133" t="s">
         <v>294</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
+      <c r="A134" t="s">
         <v>298</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
+      <c r="A135" t="s">
         <v>314</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
+      <c r="A136" t="s">
         <v>315</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
+      <c r="A137" t="s">
         <v>299</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
+      <c r="A138" t="s">
         <v>303</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
+      <c r="A139" t="s">
         <v>304</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
+      <c r="A140" t="s">
         <v>301</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
+      <c r="A141" t="s">
         <v>312</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
+      <c r="A142" t="s">
         <v>310</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
+      <c r="A143" t="s">
         <v>313</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
+      <c r="A144" t="s">
         <v>316</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
+      <c r="A145" t="s">
         <v>300</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
+      <c r="A146" t="s">
         <v>236</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
+      <c r="A147" t="s">
         <v>297</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
+      <c r="A148" t="s">
         <v>296</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
+      <c r="A149" t="s">
         <v>307</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
+      <c r="A150" t="s">
         <v>306</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
+      <c r="A151" t="s">
         <v>311</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
+      <c r="A152" t="s">
         <v>295</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
+      <c r="A153" t="s">
         <v>309</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
+      <c r="A154" t="s">
         <v>305</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
+      <c r="A155" t="s">
         <v>317</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
+      <c r="A156" t="s">
         <v>327</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
+      <c r="A157" t="s">
         <v>326</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
+      <c r="A158" t="s">
         <v>324</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
+      <c r="A159" t="s">
         <v>318</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
+      <c r="A160" t="s">
         <v>328</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
+      <c r="A161" t="s">
         <v>322</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
+      <c r="A162" t="s">
         <v>319</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
+      <c r="A163" t="s">
         <v>321</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
+      <c r="A164" t="s">
         <v>323</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="1" t="s">
+      <c r="A165" t="s">
         <v>320</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="1" t="s">
+      <c r="A166" t="s">
         <v>302</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
+      <c r="A167" t="s">
         <v>308</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
+      <c r="A168" t="s">
         <v>325</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
+      <c r="A169" t="s">
         <v>329</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
+      <c r="A170" t="s">
         <v>330</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B170" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="1" t="s">
+      <c r="A171" t="s">
         <v>335</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
+      <c r="A172" t="s">
         <v>342</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
+      <c r="A173" t="s">
         <v>331</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B173" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
+      <c r="A174" t="s">
         <v>336</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B174" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
+      <c r="A175" t="s">
         <v>341</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B175" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="1" t="s">
+      <c r="A176" t="s">
         <v>333</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B176" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
+      <c r="A177" t="s">
         <v>334</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B177" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
+      <c r="A178" t="s">
         <v>332</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B178" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
+      <c r="A179" t="s">
         <v>337</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B179" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
+      <c r="A180" t="s">
         <v>340</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
+      <c r="A181" t="s">
         <v>338</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
+      <c r="A182" t="s">
         <v>344</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B182" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
+      <c r="A183" t="s">
         <v>345</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B183" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
+      <c r="A184" t="s">
         <v>346</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B184" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
+      <c r="A185" t="s">
         <v>347</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B185" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
+      <c r="A186" t="s">
         <v>348</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
+      <c r="A187" t="s">
         <v>415</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>416</v>
+      <c r="B187" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
+      <c r="A188" t="s">
         <v>354</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B188" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
+      <c r="A189" t="s">
         <v>280</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B189" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
+      <c r="A190" t="s">
         <v>287</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B190" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
+      <c r="A191" t="s">
         <v>407</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B191" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
+      <c r="A192" t="s">
         <v>361</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B192" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
+      <c r="A193" t="s">
         <v>393</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B193" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
+      <c r="A194" t="s">
         <v>400</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B194" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
+      <c r="A195" t="s">
         <v>359</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B195" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
+      <c r="A196" t="s">
         <v>363</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
+      <c r="A197" t="s">
         <v>349</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B197" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="1" t="s">
+      <c r="A198" t="s">
         <v>351</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B198" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
+      <c r="A199" t="s">
         <v>362</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B199" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="1" t="s">
+      <c r="A200" t="s">
         <v>369</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B200" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
+      <c r="A201" t="s">
         <v>357</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B201" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="1" t="s">
+      <c r="A202" t="s">
         <v>352</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B202" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
+      <c r="A203" t="s">
         <v>408</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B203" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
+      <c r="A204" t="s">
         <v>365</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B204" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="1" t="s">
+      <c r="A205" t="s">
         <v>366</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B205" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
+      <c r="A206" t="s">
         <v>356</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B206" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
+      <c r="A207" t="s">
         <v>360</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B207" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="1" t="s">
+      <c r="A208" t="s">
         <v>402</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B208" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
+      <c r="A209" t="s">
         <v>353</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B209" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="1" t="s">
+      <c r="A210" t="s">
         <v>405</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B210" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" s="1" t="s">
+      <c r="A211" t="s">
         <v>228</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B211" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
+      <c r="A212" t="s">
         <v>289</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B212" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
+      <c r="A213" t="s">
         <v>350</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B213" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" s="1" t="s">
+      <c r="A214" t="s">
         <v>364</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B214" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
+      <c r="A215" t="s">
         <v>355</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B215" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
+      <c r="A216" t="s">
         <v>367</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B216" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" s="1" t="s">
+      <c r="A217" t="s">
         <v>201</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B217" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="1" t="s">
+      <c r="A218" t="s">
         <v>370</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B218" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" s="1" t="s">
+      <c r="A219" t="s">
         <v>384</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B219" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="1" t="s">
+      <c r="A220" t="s">
         <v>375</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B220" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" s="1" t="s">
+      <c r="A221" t="s">
         <v>385</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B221" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
+      <c r="A222" t="s">
         <v>374</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B222" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" s="1" t="s">
+      <c r="A223" t="s">
         <v>378</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B223" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="1" t="s">
+      <c r="A224" t="s">
         <v>373</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B224" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" s="1" t="s">
+      <c r="A225" t="s">
         <v>376</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B225" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="1" t="s">
+      <c r="A226" t="s">
         <v>379</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B226" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" s="1" t="s">
+      <c r="A227" t="s">
         <v>380</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B227" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" s="1" t="s">
+      <c r="A228" t="s">
         <v>381</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B228" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" s="1" t="s">
+      <c r="A229" t="s">
         <v>382</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B229" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" s="1" t="s">
+      <c r="A230" t="s">
         <v>377</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B230" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" s="1" t="s">
+      <c r="A231" t="s">
         <v>371</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B231" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" s="1" t="s">
+      <c r="A232" t="s">
         <v>383</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="B232" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" s="1" t="s">
+      <c r="A233" t="s">
         <v>386</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B233" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" s="1" t="s">
+      <c r="A234" t="s">
         <v>387</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B234" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" s="1" t="s">
+      <c r="A235" t="s">
         <v>169</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B235" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="1" t="s">
+      <c r="A236" t="s">
         <v>238</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="B236" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" s="1" t="s">
+      <c r="A237" t="s">
         <v>390</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="B237" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" s="1" t="s">
+      <c r="A238" t="s">
         <v>388</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="B238" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="1" t="s">
+      <c r="A239" t="s">
         <v>389</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="B239" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" s="1" t="s">
+      <c r="A240" t="s">
         <v>391</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B240" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" s="1" t="s">
+      <c r="A241" t="s">
         <v>398</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="B241" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" s="1" t="s">
+      <c r="A242" t="s">
         <v>394</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="B242" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" s="1" t="s">
+      <c r="A243" t="s">
         <v>397</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="B243" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" s="1" t="s">
+      <c r="A244" t="s">
         <v>395</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="B244" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" s="1" t="s">
+      <c r="A245" t="s">
         <v>396</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="B245" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" s="1" t="s">
+      <c r="A246" t="s">
         <v>399</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="B246" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" s="1" t="s">
+      <c r="A247" t="s">
         <v>227</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="B247" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" s="1" t="s">
+      <c r="A248" t="s">
         <v>401</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="B248" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" s="1" t="s">
+      <c r="A249" t="s">
         <v>403</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="B249" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" s="1" t="s">
+      <c r="A250" t="s">
         <v>404</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="B250" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -9641,8 +9630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AAB97C-9C6A-4089-907F-A92DC0C4660B}">
   <dimension ref="A1:A161"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+    <sheetView topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10459,14 +10448,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635AECAF-22BD-4B7E-AFA1-ADF7370CA655}">
-  <dimension ref="A1:B251"/>
+  <dimension ref="A1:B250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="C237" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="28.5546875" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -11962,7 +11953,7 @@
         <v>415</v>
       </c>
       <c r="B187" t="s">
-        <v>416</v>
+        <v>141</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -12467,14 +12458,6 @@
       </c>
       <c r="B250" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
-        <v>406</v>
-      </c>
-      <c r="B251" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -12487,8 +12470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FFF438-1224-4514-9417-0F42187BB325}">
   <dimension ref="A1:A164"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
